--- a/data_clean/SpareBank 1 SR-Bk 14.01.2021.xlsx
+++ b/data_clean/SpareBank 1 SR-Bk 14.01.2021.xlsx
@@ -909,7 +909,7 @@
         <v>1.363644661545656</v>
       </c>
       <c r="K2">
-        <v>58.1466843055169</v>
+        <v>0.08146684305516894</v>
       </c>
       <c r="L2">
         <v>0.01173108949060222</v>
@@ -939,13 +939,13 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -980,7 +980,7 @@
         <v>1.363644661545656</v>
       </c>
       <c r="K3">
-        <v>100</v>
+        <v>0.5</v>
       </c>
       <c r="L3">
         <v>0.05949120494156561</v>
@@ -1010,13 +1010,13 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -1051,7 +1051,7 @@
         <v>1.363644661545656</v>
       </c>
       <c r="K4">
-        <v>100</v>
+        <v>0.5</v>
       </c>
       <c r="L4">
         <v>0.0566890517642219</v>
@@ -1081,13 +1081,13 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>1.001334400854017</v>
+        <v>0.001334400854016593</v>
       </c>
       <c r="V4">
-        <v>1.001334400854017</v>
+        <v>0.001334400854016593</v>
       </c>
       <c r="W4">
-        <v>1.002131060202451</v>
+        <v>0.002131060202450685</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -1122,7 +1122,7 @@
         <v>1.363644661545656</v>
       </c>
       <c r="K5">
-        <v>100</v>
+        <v>0.5</v>
       </c>
       <c r="L5">
         <v>0.05009005408850994</v>
@@ -1152,13 +1152,13 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>1.00066631130064</v>
+        <v>0.0006663113006397658</v>
       </c>
       <c r="V5">
-        <v>1.00066631130064</v>
+        <v>0.0006663113006397658</v>
       </c>
       <c r="W5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -1193,7 +1193,7 @@
         <v>1.363644661545656</v>
       </c>
       <c r="K6">
-        <v>100</v>
+        <v>0.5</v>
       </c>
       <c r="L6">
         <v>0.04821831567347085</v>
@@ -1223,13 +1223,13 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>1.00082567585564</v>
+        <v>0.0008256758556399735</v>
       </c>
       <c r="V6">
-        <v>1.00082567585564</v>
+        <v>0.0008256758556399735</v>
       </c>
       <c r="W6">
-        <v>1.002126528442318</v>
+        <v>0.002126528442317976</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1264,7 +1264,7 @@
         <v>2.586208750000001</v>
       </c>
       <c r="K7">
-        <v>72.11539902689715</v>
+        <v>0.2211539902689715</v>
       </c>
       <c r="L7">
         <v>0.04239005775420702</v>
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>1.000106450926123</v>
+        <v>0.0001064509261230473</v>
       </c>
       <c r="V7">
-        <v>1.000106450926123</v>
+        <v>0.0001064509261230473</v>
       </c>
       <c r="W7">
-        <v>0.9973474801061007</v>
+        <v>-0.002652519893899252</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1335,7 +1335,7 @@
         <v>2.796735065789464</v>
       </c>
       <c r="K8">
-        <v>73.66158073523448</v>
+        <v>0.2366158073523448</v>
       </c>
       <c r="L8">
         <v>0.03709479694870991</v>
@@ -1365,13 +1365,13 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>1.000152056565042</v>
+        <v>0.0001520565650421357</v>
       </c>
       <c r="V8">
-        <v>1.000152056565042</v>
+        <v>0.0001520565650421357</v>
       </c>
       <c r="W8">
-        <v>1.000531914893617</v>
+        <v>0.0005319148936169249</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1406,7 +1406,7 @@
         <v>3.904768306786694</v>
       </c>
       <c r="K9">
-        <v>79.61167709764584</v>
+        <v>0.2961167709764584</v>
       </c>
       <c r="L9">
         <v>0.03496283556366354</v>
@@ -1436,13 +1436,13 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>1.000446598251615</v>
+        <v>0.0004465982516153044</v>
       </c>
       <c r="V9">
-        <v>1.000446598251615</v>
+        <v>0.0004465982516153044</v>
       </c>
       <c r="W9">
-        <v>1.002658160552897</v>
+        <v>0.002658160552897471</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1477,7 +1477,7 @@
         <v>3.166190544538388</v>
       </c>
       <c r="K10">
-        <v>75.9972572231259</v>
+        <v>0.259972572231259</v>
       </c>
       <c r="L10">
         <v>0.0334169028515431</v>
@@ -1507,13 +1507,13 @@
         <v>0.06666666666666288</v>
       </c>
       <c r="U10">
-        <v>1.000288101411697</v>
+        <v>0.0002881014116968839</v>
       </c>
       <c r="V10">
-        <v>1.000288101411697</v>
+        <v>0.0002881014116968839</v>
       </c>
       <c r="W10">
-        <v>0.9994697773064688</v>
+        <v>-0.0005302226935312015</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1548,7 +1548,7 @@
         <v>3.564396130616107</v>
       </c>
       <c r="K11">
-        <v>78.0912968247342</v>
+        <v>0.280912968247342</v>
       </c>
       <c r="L11">
         <v>0.03274141185073258</v>
@@ -1578,13 +1578,13 @@
         <v>0.09749999999999659</v>
       </c>
       <c r="U11">
-        <v>1.000336760014179</v>
+        <v>0.0003367600141792604</v>
       </c>
       <c r="V11">
-        <v>1.000336760014179</v>
+        <v>0.0003367600141792604</v>
       </c>
       <c r="W11">
-        <v>1.00106100795756</v>
+        <v>0.001061007957559701</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1619,7 +1619,7 @@
         <v>1.01405795892602</v>
       </c>
       <c r="K12">
-        <v>50.34899588821952</v>
+        <v>0.003489958882195165</v>
       </c>
       <c r="L12">
         <v>0.02833962025131543</v>
@@ -1649,13 +1649,13 @@
         <v>0.08863636363635408</v>
       </c>
       <c r="U12">
-        <v>0.9996955683449067</v>
+        <v>-0.0003044316550933068</v>
       </c>
       <c r="V12">
-        <v>0.9996955683449067</v>
+        <v>-0.0003044316550933068</v>
       </c>
       <c r="W12">
-        <v>0.9936406995230526</v>
+        <v>-0.006359300476947438</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1690,7 +1690,7 @@
         <v>1.578929201797368</v>
       </c>
       <c r="K13">
-        <v>61.22421665150573</v>
+        <v>0.1122421665150573</v>
       </c>
       <c r="L13">
         <v>0.02532476036186184</v>
@@ -1720,13 +1720,13 @@
         <v>0.09375000000001421</v>
       </c>
       <c r="U13">
-        <v>1.000145011600928</v>
+        <v>0.0001450116009278357</v>
       </c>
       <c r="V13">
-        <v>1.000145011600928</v>
+        <v>0.0001450116009278357</v>
       </c>
       <c r="W13">
-        <v>1.0048</v>
+        <v>0.004800000000000137</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1761,7 +1761,7 @@
         <v>1.248888796365326</v>
       </c>
       <c r="K14">
-        <v>55.53359500851225</v>
+        <v>0.05533595008512249</v>
       </c>
       <c r="L14">
         <v>0.02199541606790566</v>
@@ -1791,13 +1791,13 @@
         <v>0.06634615384616893</v>
       </c>
       <c r="U14">
-        <v>0.9999591052222631</v>
+        <v>-4.089477773694394E-05</v>
       </c>
       <c r="V14">
-        <v>0.9999591052222631</v>
+        <v>-4.089477773694394E-05</v>
       </c>
       <c r="W14">
-        <v>0.9978768577494692</v>
+        <v>-0.002123142250530785</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1832,7 +1832,7 @@
         <v>1.248888796365326</v>
       </c>
       <c r="K15">
-        <v>55.53359500851226</v>
+        <v>0.0553359500851226</v>
       </c>
       <c r="L15">
         <v>0.01871022330307879</v>
@@ -1862,13 +1862,13 @@
         <v>0.0696428571428811</v>
       </c>
       <c r="U15">
-        <v>0.9999649458998386</v>
+        <v>-3.505410016135801E-05</v>
       </c>
       <c r="V15">
-        <v>0.9999649458998386</v>
+        <v>-3.505410016135801E-05</v>
       </c>
       <c r="W15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1903,7 +1903,7 @@
         <v>1.248888796365326</v>
       </c>
       <c r="K16">
-        <v>55.53359500851226</v>
+        <v>0.0553359500851226</v>
       </c>
       <c r="L16">
         <v>0.01564443909613782</v>
@@ -1933,13 +1933,13 @@
         <v>0.0662500000000108</v>
       </c>
       <c r="U16">
-        <v>0.9999696187148717</v>
+        <v>-3.03812851283336E-05</v>
       </c>
       <c r="V16">
-        <v>0.9999696187148717</v>
+        <v>-3.03812851283336E-05</v>
       </c>
       <c r="W16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1974,7 +1974,7 @@
         <v>1.309838787642324</v>
       </c>
       <c r="K17">
-        <v>56.70693533462089</v>
+        <v>0.06706935334620889</v>
       </c>
       <c r="L17">
         <v>0.0131159058673713</v>
@@ -2004,13 +2004,13 @@
         <v>0.03437499999999716</v>
       </c>
       <c r="U17">
-        <v>1.000006646108039</v>
+        <v>6.646108039243259E-06</v>
       </c>
       <c r="V17">
-        <v>1.000389905004962</v>
+        <v>0.0003899050049624986</v>
       </c>
       <c r="W17">
-        <v>1.000531914893617</v>
+        <v>0.0005319148936169249</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -2045,7 +2045,7 @@
         <v>1.502312444306547</v>
       </c>
       <c r="K18">
-        <v>60.03696491717984</v>
+        <v>0.1003696491717985</v>
       </c>
       <c r="L18">
         <v>0.01171331058237151</v>
@@ -2075,13 +2075,13 @@
         <v>-0.01562499999998579</v>
       </c>
       <c r="U18">
-        <v>1.00009969095803</v>
+        <v>9.96909580299743E-05</v>
       </c>
       <c r="V18">
-        <v>1.000248024660738</v>
+        <v>0.0002480246607377001</v>
       </c>
       <c r="W18">
-        <v>1.001594896331738</v>
+        <v>0.001594896331738482</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -2116,7 +2116,7 @@
         <v>1.182794226866181</v>
       </c>
       <c r="K19">
-        <v>54.18716122244417</v>
+        <v>0.04187161222444169</v>
       </c>
       <c r="L19">
         <v>0.01007838947535481</v>
@@ -2146,13 +2146,13 @@
         <v>-0.06874999999999432</v>
       </c>
       <c r="U19">
-        <v>0.9999704648827455</v>
+        <v>-2.953511725445335E-05</v>
       </c>
       <c r="V19">
-        <v>0.9999645766914629</v>
+        <v>-3.542330853711917E-05</v>
       </c>
       <c r="W19">
-        <v>0.9978768577494692</v>
+        <v>-0.002123142250530785</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -2187,7 +2187,7 @@
         <v>1.182794226866181</v>
       </c>
       <c r="K20">
-        <v>54.18716122244417</v>
+        <v>0.04187161222444169</v>
       </c>
       <c r="L20">
         <v>0.00839416716590191</v>
@@ -2217,13 +2217,13 @@
         <v>-0.03437499999998295</v>
       </c>
       <c r="U20">
-        <v>0.9999735730619338</v>
+        <v>-2.642693806620411E-05</v>
       </c>
       <c r="V20">
-        <v>0.9999645754366078</v>
+        <v>-3.542456339222788E-05</v>
       </c>
       <c r="W20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -2258,7 +2258,7 @@
         <v>1.241709535623991</v>
       </c>
       <c r="K21">
-        <v>55.39118765796545</v>
+        <v>0.05391187657965457</v>
       </c>
       <c r="L21">
         <v>0.006986111625348118</v>
@@ -2288,13 +2288,13 @@
         <v>-0.05312499999999432</v>
       </c>
       <c r="U21">
-        <v>1.000002798220332</v>
+        <v>2.798220332111967E-06</v>
       </c>
       <c r="V21">
-        <v>0.9998582967266544</v>
+        <v>-0.0001417032733456169</v>
       </c>
       <c r="W21">
-        <v>1.000531914893617</v>
+        <v>0.0005319148936169249</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2329,7 +2329,7 @@
         <v>1.489773993551629</v>
       </c>
       <c r="K22">
-        <v>59.83571189232668</v>
+        <v>0.09835711892326682</v>
       </c>
       <c r="L22">
         <v>0.006655939727586853</v>
@@ -2359,13 +2359,13 @@
         <v>-0.02187499999999432</v>
       </c>
       <c r="U22">
-        <v>1.000103800358997</v>
+        <v>0.0001038003589972636</v>
       </c>
       <c r="V22">
-        <v>1.000177154195011</v>
+        <v>0.0001771541950112976</v>
       </c>
       <c r="W22">
-        <v>1.002126528442318</v>
+        <v>0.002126528442317976</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2400,7 +2400,7 @@
         <v>1.317730749327203</v>
       </c>
       <c r="K23">
-        <v>56.85434987259488</v>
+        <v>0.06854349872594878</v>
       </c>
       <c r="L23">
         <v>0.006523227457296746</v>
@@ -2430,13 +2430,13 @@
         <v>-0.01250000000000284</v>
       </c>
       <c r="U23">
-        <v>1.00004602642377</v>
+        <v>4.602642376982935E-05</v>
       </c>
       <c r="V23">
-        <v>1.000070849126785</v>
+        <v>7.084912678467781E-05</v>
       </c>
       <c r="W23">
-        <v>0.9989389920424404</v>
+        <v>-0.00106100795755959</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2471,7 +2471,7 @@
         <v>1.010605622804463</v>
       </c>
       <c r="K24">
-        <v>50.26374199604768</v>
+        <v>0.002637419960476728</v>
       </c>
       <c r="L24">
         <v>0.005454980792805091</v>
@@ -2501,13 +2501,13 @@
         <v>-0.01562500000001421</v>
       </c>
       <c r="U24">
-        <v>0.9999264611641407</v>
+        <v>-7.35388358592548E-05</v>
       </c>
       <c r="V24">
-        <v>0.9997166235698347</v>
+        <v>-0.0002833764301652941</v>
       </c>
       <c r="W24">
-        <v>0.997344662772172</v>
+        <v>-0.002655337227827959</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2542,7 +2542,7 @@
         <v>1.108740877531147</v>
       </c>
       <c r="K25">
-        <v>52.57833664367662</v>
+        <v>0.02578336643676626</v>
       </c>
       <c r="L25">
         <v>0.004301531415423274</v>
@@ -2572,13 +2572,13 @@
         <v>-0.003125000000011369</v>
       </c>
       <c r="U25">
-        <v>0.9999768860946746</v>
+        <v>-2.311390532538926E-05</v>
       </c>
       <c r="V25">
-        <v>0.9998228395280445</v>
+        <v>-0.0001771604719554842</v>
       </c>
       <c r="W25">
-        <v>1.001064962726304</v>
+        <v>0.001064962726304408</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2613,7 +2613,7 @@
         <v>1.263691279731189</v>
       </c>
       <c r="K26">
-        <v>55.8243648789976</v>
+        <v>0.05824364878997601</v>
       </c>
       <c r="L26">
         <v>0.003767801078418597</v>
@@ -2643,13 +2643,13 @@
         <v>-0.003124999999997158</v>
       </c>
       <c r="U26">
-        <v>1.000042530568847</v>
+        <v>4.253056884651052E-05</v>
       </c>
       <c r="V26">
-        <v>0.9998582465093203</v>
+        <v>-0.0001417534906796858</v>
       </c>
       <c r="W26">
-        <v>1.001595744680851</v>
+        <v>0.001595744680851219</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2684,7 +2684,7 @@
         <v>1.263691279731189</v>
       </c>
       <c r="K27">
-        <v>55.8243648789976</v>
+        <v>0.05824364878997601</v>
       </c>
       <c r="L27">
         <v>0.003620938914437161</v>
@@ -2714,13 +2714,13 @@
         <v>0.02812500000000284</v>
       </c>
       <c r="U27">
-        <v>1.000039257316991</v>
+        <v>3.925731699139234E-05</v>
       </c>
       <c r="V27">
-        <v>1.000283547175161</v>
+        <v>0.000283547175161214</v>
       </c>
       <c r="W27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2755,7 +2755,7 @@
         <v>1.133904430224484</v>
       </c>
       <c r="K28">
-        <v>53.13754515731516</v>
+        <v>0.03137545157315158</v>
       </c>
       <c r="L28">
         <v>0.003298974036095389</v>
@@ -2785,13 +2785,13 @@
         <v>0.015625</v>
       </c>
       <c r="U28">
-        <v>0.9999969710049449</v>
+        <v>-3.028995055109895E-06</v>
       </c>
       <c r="V28">
-        <v>0.9998936999503935</v>
+        <v>-0.0001063000496065447</v>
       </c>
       <c r="W28">
-        <v>0.9989378651088687</v>
+        <v>-0.001062134891131272</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2826,7 +2826,7 @@
         <v>1.350124544288893</v>
       </c>
       <c r="K29">
-        <v>57.44906360685736</v>
+        <v>0.07449063606857353</v>
       </c>
       <c r="L29">
         <v>0.003678036915918341</v>
@@ -2856,13 +2856,13 @@
         <v>0.03749999999999432</v>
       </c>
       <c r="U29">
-        <v>1.00007312881641</v>
+        <v>7.312881641019509E-05</v>
       </c>
       <c r="V29">
-        <v>1.000177185584181</v>
+        <v>0.0001771855841807835</v>
       </c>
       <c r="W29">
-        <v>1.002126528442318</v>
+        <v>0.002126528442317976</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2897,7 +2897,7 @@
         <v>1.463924604322783</v>
       </c>
       <c r="K30">
-        <v>59.41434253931431</v>
+        <v>0.09414342539314313</v>
       </c>
       <c r="L30">
         <v>0.004832714931102461</v>
@@ -2927,13 +2927,13 @@
         <v>0.02812499999998863</v>
       </c>
       <c r="U30">
-        <v>1.000104739186334</v>
+        <v>0.00010473918633358</v>
       </c>
       <c r="V30">
-        <v>1.000248015873016</v>
+        <v>0.0002480158730160387</v>
       </c>
       <c r="W30">
-        <v>1.00106100795756</v>
+        <v>0.001061007957559701</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2968,7 +2968,7 @@
         <v>1.463924604322783</v>
       </c>
       <c r="K31">
-        <v>59.41434253931431</v>
+        <v>0.09414342539314313</v>
       </c>
       <c r="L31">
         <v>0.006357273800548959</v>
@@ -2998,13 +2998,13 @@
         <v>0.03125</v>
       </c>
       <c r="U31">
-        <v>1.00009774633604</v>
+        <v>9.774633603965022E-05</v>
       </c>
       <c r="V31">
-        <v>1.000247954376395</v>
+        <v>0.0002479543763949099</v>
       </c>
       <c r="W31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -3039,7 +3039,7 @@
         <v>1.463924604322783</v>
       </c>
       <c r="K32">
-        <v>59.41434253931431</v>
+        <v>0.09414342539314313</v>
       </c>
       <c r="L32">
         <v>0.007980215998972516</v>
@@ -3069,13 +3069,13 @@
         <v>0.06562499999999716</v>
       </c>
       <c r="U32">
-        <v>1.00030115146147</v>
+        <v>0.0003011514614703614</v>
       </c>
       <c r="V32">
-        <v>1.000212479637368</v>
+        <v>0.0002124796373679239</v>
       </c>
       <c r="W32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -3110,7 +3110,7 @@
         <v>1.530289998714924</v>
       </c>
       <c r="K33">
-        <v>60.4788383739462</v>
+        <v>0.104788383739462</v>
       </c>
       <c r="L33">
         <v>0.009723330637485452</v>
@@ -3140,13 +3140,13 @@
         <v>0.09375000000001421</v>
       </c>
       <c r="U33">
-        <v>1.000194804044841</v>
+        <v>0.0001948040448405131</v>
       </c>
       <c r="V33">
-        <v>1.000141622999575</v>
+        <v>0.0001416229995752083</v>
       </c>
       <c r="W33">
-        <v>1.000529941706412</v>
+        <v>0.0005299417064124068</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -3181,7 +3181,7 @@
         <v>1.265146921609803</v>
       </c>
       <c r="K34">
-        <v>55.85275328236474</v>
+        <v>0.05852753282364742</v>
       </c>
       <c r="L34">
         <v>0.01080191598959611</v>
@@ -3211,13 +3211,13 @@
         <v>0.1031249999999915</v>
       </c>
       <c r="U34">
-        <v>1.000070824037678</v>
+        <v>7.082403767832979E-05</v>
       </c>
       <c r="V34">
-        <v>1.000177003681677</v>
+        <v>0.000177003681676613</v>
       </c>
       <c r="W34">
-        <v>0.9984110169491525</v>
+        <v>-0.001588983050847537</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -3252,7 +3252,7 @@
         <v>1.192641322586475</v>
       </c>
       <c r="K35">
-        <v>54.39290550173597</v>
+        <v>0.04392905501735966</v>
       </c>
       <c r="L35">
         <v>0.01117558007430644</v>
@@ -3282,13 +3282,13 @@
         <v>0.09687499999999716</v>
       </c>
       <c r="U35">
-        <v>1.000053114266492</v>
+        <v>5.311426649190487E-05</v>
       </c>
       <c r="V35">
-        <v>1.000141577885534</v>
+        <v>0.0001415778855342609</v>
       </c>
       <c r="W35">
-        <v>0.9994694960212201</v>
+        <v>-0.0005305039787798504</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -3323,7 +3323,7 @@
         <v>1.064238139203433</v>
       </c>
       <c r="K36">
-        <v>51.55597694818828</v>
+        <v>0.01555976948188276</v>
       </c>
       <c r="L36">
         <v>0.01066912492830708</v>
@@ -3353,13 +3353,13 @@
         <v>0.09687499999999716</v>
       </c>
       <c r="U36">
-        <v>0.9999468885544837</v>
+        <v>-5.311144551634062E-05</v>
       </c>
       <c r="V36">
-        <v>1.000035389461019</v>
+        <v>3.538946101855345E-05</v>
       </c>
       <c r="W36">
-        <v>0.9989384288747345</v>
+        <v>-0.001061571125265504</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3394,7 +3394,7 @@
         <v>1.234232138790706</v>
       </c>
       <c r="K37">
-        <v>55.24189350613957</v>
+        <v>0.05241893506139572</v>
       </c>
       <c r="L37">
         <v>0.01021025883045715</v>
@@ -3424,13 +3424,13 @@
         <v>0.08437499999999432</v>
       </c>
       <c r="U37">
-        <v>1.000088523777487</v>
+        <v>8.852377748658213E-05</v>
       </c>
       <c r="V37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W37">
-        <v>1.001594048884166</v>
+        <v>0.001594048884165922</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3465,7 +3465,7 @@
         <v>0.996483148100335</v>
       </c>
       <c r="K38">
-        <v>49.91192382708035</v>
+        <v>-0.0008807617291964887</v>
       </c>
       <c r="L38">
         <v>0.008993485141504625</v>
@@ -3495,13 +3495,13 @@
         <v>0.05937500000000284</v>
       </c>
       <c r="U38">
-        <v>0.9999999999999999</v>
+        <v>-1.110223024625157E-16</v>
       </c>
       <c r="V38">
-        <v>0.9999292235827022</v>
+        <v>-7.077641729780204E-05</v>
       </c>
       <c r="W38">
-        <v>0.9978779840848806</v>
+        <v>-0.002122015915119402</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3536,7 +3536,7 @@
         <v>1.249942452470693</v>
       </c>
       <c r="K39">
-        <v>55.5544187851611</v>
+        <v>0.05554418785161097</v>
       </c>
       <c r="L39">
         <v>0.00833663221156431</v>
@@ -3566,13 +3566,13 @@
         <v>0.04375000000000284</v>
       </c>
       <c r="U39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V39">
-        <v>1.000283125707814</v>
+        <v>0.0002831257078141913</v>
       </c>
       <c r="W39">
-        <v>1.002658160552897</v>
+        <v>0.002658160552897471</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3607,7 +3607,7 @@
         <v>1.356662159574011</v>
       </c>
       <c r="K40">
-        <v>57.56710413762661</v>
+        <v>0.07567104137626612</v>
       </c>
       <c r="L40">
         <v>0.008417943908533286</v>
@@ -3637,13 +3637,13 @@
         <v>0.01874999999999716</v>
       </c>
       <c r="U40">
-        <v>1.000053109565033</v>
+        <v>5.310956503268294E-05</v>
       </c>
       <c r="V40">
-        <v>1.000283045570337</v>
+        <v>0.0002830455703368706</v>
       </c>
       <c r="W40">
-        <v>1.001060445387063</v>
+        <v>0.001060445387062625</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3678,7 +3678,7 @@
         <v>1.219650814621648</v>
       </c>
       <c r="K41">
-        <v>54.94786867318787</v>
+        <v>0.04947868673187872</v>
       </c>
       <c r="L41">
         <v>0.008520887348170242</v>
@@ -3708,13 +3708,13 @@
         <v>-0.01249999999998863</v>
       </c>
       <c r="U41">
-        <v>0.9999822977518144</v>
+        <v>-1.770224818564703E-05</v>
       </c>
       <c r="V41">
-        <v>1.00010611205433</v>
+        <v>0.0001061120543295324</v>
       </c>
       <c r="W41">
-        <v>0.9989406779661016</v>
+        <v>-0.001059322033898358</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3749,7 +3749,7 @@
         <v>1.272804235078283</v>
       </c>
       <c r="K42">
-        <v>56.00148994066105</v>
+        <v>0.06001489940661042</v>
       </c>
       <c r="L42">
         <v>0.008793083526947874</v>
@@ -3779,13 +3779,13 @@
         <v>-0.01250000000001705</v>
       </c>
       <c r="U42">
-        <v>1.000212430738728</v>
+        <v>0.0002124307387278979</v>
       </c>
       <c r="V42">
-        <v>1.000141467727675</v>
+        <v>0.000141467727674538</v>
       </c>
       <c r="W42">
-        <v>1.000530222693531</v>
+        <v>0.0005302226935313126</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3820,7 +3820,7 @@
         <v>1.272804235078283</v>
       </c>
       <c r="K43">
-        <v>56.00148994066105</v>
+        <v>0.06001489940661042</v>
       </c>
       <c r="L43">
         <v>0.009117983707542302</v>
@@ -3850,13 +3850,13 @@
         <v>-0.006249999999994316</v>
       </c>
       <c r="U43">
-        <v>1.000053096405374</v>
+        <v>5.309640537354277E-05</v>
       </c>
       <c r="V43">
-        <v>1.000212171576081</v>
+        <v>0.0002121715760812215</v>
       </c>
       <c r="W43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -3891,7 +3891,7 @@
         <v>1.202010893875386</v>
       </c>
       <c r="K44">
-        <v>54.58696399816309</v>
+        <v>0.04586963998163085</v>
       </c>
       <c r="L44">
         <v>0.009226827566238865</v>
@@ -3921,13 +3921,13 @@
         <v>0.003124999999997158</v>
       </c>
       <c r="U44">
-        <v>1.000106187172589</v>
+        <v>0.0001061871725893671</v>
       </c>
       <c r="V44">
-        <v>1.000035354428142</v>
+        <v>3.535442814217582E-05</v>
       </c>
       <c r="W44">
-        <v>0.9994700582935877</v>
+        <v>-0.0005299417064122958</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -3962,7 +3962,7 @@
         <v>1.135528704938454</v>
       </c>
       <c r="K45">
-        <v>53.17318855572021</v>
+        <v>0.03173188555720208</v>
       </c>
       <c r="L45">
         <v>0.008970603092289708</v>
@@ -3992,13 +3992,13 @@
         <v>0.003124999999997158</v>
       </c>
       <c r="U45">
-        <v>1.000088479915059</v>
+        <v>8.847991505911423E-05</v>
       </c>
       <c r="V45">
-        <v>0.9999292936434985</v>
+        <v>-7.070635650152646E-05</v>
       </c>
       <c r="W45">
-        <v>0.9994697773064688</v>
+        <v>-0.0005302226935312015</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -4033,7 +4033,7 @@
         <v>1.135528704938454</v>
       </c>
       <c r="K46">
-        <v>53.17318855572021</v>
+        <v>0.03173188555720208</v>
       </c>
       <c r="L46">
         <v>0.008477127669123785</v>
@@ -4063,13 +4063,13 @@
         <v>0.03437500000001137</v>
       </c>
       <c r="U46">
-        <v>1.000088472087057</v>
+        <v>8.847208705664578E-05</v>
       </c>
       <c r="V46">
-        <v>0.9999292886437563</v>
+        <v>-7.071135624370228E-05</v>
       </c>
       <c r="W46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -4104,7 +4104,7 @@
         <v>1.319381802239974</v>
       </c>
       <c r="K47">
-        <v>56.88506312180959</v>
+        <v>0.06885063121809587</v>
       </c>
       <c r="L47">
         <v>0.008421317473112597</v>
@@ -4134,13 +4134,13 @@
         <v>0.04375000000000284</v>
       </c>
       <c r="U47">
-        <v>1.000123849964614</v>
+        <v>0.00012384996461412</v>
       </c>
       <c r="V47">
-        <v>1.000035358178347</v>
+        <v>3.535817834676713E-05</v>
       </c>
       <c r="W47">
-        <v>1.00159151193634</v>
+        <v>0.001591511936339662</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -4175,7 +4175,7 @@
         <v>1.168608290803815</v>
       </c>
       <c r="K48">
-        <v>53.8874768559821</v>
+        <v>0.03887476855982097</v>
       </c>
       <c r="L48">
         <v>0.008216185449092054</v>
@@ -4205,13 +4205,13 @@
         <v>0.03437499999999716</v>
       </c>
       <c r="U48">
-        <v>1.0000353813222</v>
+        <v>3.538132220004542E-05</v>
       </c>
       <c r="V48">
-        <v>0.9999292861436198</v>
+        <v>-7.071385638024452E-05</v>
       </c>
       <c r="W48">
-        <v>0.9989406779661016</v>
+        <v>-0.001059322033898358</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -4246,7 +4246,7 @@
         <v>1.28889868675822</v>
       </c>
       <c r="K49">
-        <v>56.31086662833881</v>
+        <v>0.06310866628338818</v>
       </c>
       <c r="L49">
         <v>0.008290666006207635</v>
@@ -4276,13 +4276,13 @@
         <v>0.04687499999998579</v>
       </c>
       <c r="U49">
-        <v>1.000141520281625</v>
+        <v>0.0001415202816252847</v>
       </c>
       <c r="V49">
-        <v>1.000106078285775</v>
+        <v>0.0001060782857749132</v>
       </c>
       <c r="W49">
-        <v>1.001060445387063</v>
+        <v>0.001060445387062625</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -4317,7 +4317,7 @@
         <v>1.144038811381123</v>
       </c>
       <c r="K50">
-        <v>53.35905326472</v>
+        <v>0.03359053264719991</v>
       </c>
       <c r="L50">
         <v>0.008112579656511326</v>
@@ -4347,13 +4347,13 @@
         <v>0.03750000000000853</v>
       </c>
       <c r="U50">
-        <v>1.000106125192352</v>
+        <v>0.0001061251923519801</v>
       </c>
       <c r="V50">
-        <v>1.000070711356244</v>
+        <v>7.071135624370228E-05</v>
       </c>
       <c r="W50">
-        <v>0.9989406779661016</v>
+        <v>-0.001059322033898358</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -4388,7 +4388,7 @@
         <v>1.262344525329699</v>
       </c>
       <c r="K51">
-        <v>55.79806750016261</v>
+        <v>0.05798067500162607</v>
       </c>
       <c r="L51">
         <v>0.008150076468672041</v>
@@ -4418,13 +4418,13 @@
         <v>0.03125000000001421</v>
       </c>
       <c r="U51">
-        <v>1.000123799586156</v>
+        <v>0.000123799586155604</v>
       </c>
       <c r="V51">
-        <v>1.000212119069504</v>
+        <v>0.0002121190695043573</v>
       </c>
       <c r="W51">
-        <v>1.001060445387063</v>
+        <v>0.001060445387062625</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -4459,7 +4459,7 @@
         <v>1.262344525329699</v>
       </c>
       <c r="K52">
-        <v>55.79806750016261</v>
+        <v>0.05798067500162607</v>
       </c>
       <c r="L52">
         <v>0.008285948420169692</v>
@@ -4489,13 +4489,13 @@
         <v>0.02499999999999147</v>
       </c>
       <c r="U52">
-        <v>1.000053050397878</v>
+        <v>5.305039787817378E-05</v>
       </c>
       <c r="V52">
-        <v>1.000106037042273</v>
+        <v>0.0001060370422734103</v>
       </c>
       <c r="W52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -4530,7 +4530,7 @@
         <v>1.262344525329699</v>
       </c>
       <c r="K53">
-        <v>55.79806750016261</v>
+        <v>0.05798067500162607</v>
       </c>
       <c r="L53">
         <v>0.0084424694227273</v>
@@ -4560,13 +4560,13 @@
         <v>0.03437500000001137</v>
       </c>
       <c r="U53">
-        <v>1.000088412639471</v>
+        <v>8.841263947068079E-05</v>
       </c>
       <c r="V53">
-        <v>1.000247393532426</v>
+        <v>0.0002473935324263099</v>
       </c>
       <c r="W53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -4601,7 +4601,7 @@
         <v>1.262344525329699</v>
       </c>
       <c r="K54">
-        <v>55.79806750016261</v>
+        <v>0.05798067500162607</v>
       </c>
       <c r="L54">
         <v>0.008570696492525027</v>
@@ -4631,13 +4631,13 @@
         <v>0.03125000000001421</v>
       </c>
       <c r="U54">
-        <v>1.000176809646734</v>
+        <v>0.0001768096467344993</v>
       </c>
       <c r="V54">
-        <v>1.000070666384001</v>
+        <v>7.06663840011057E-05</v>
       </c>
       <c r="W54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -4672,7 +4672,7 @@
         <v>1.262344525329699</v>
       </c>
       <c r="K55">
-        <v>55.79806750016261</v>
+        <v>0.05798067500162607</v>
       </c>
       <c r="L55">
         <v>0.008642337626849792</v>
@@ -4702,13 +4702,13 @@
         <v>0.02500000000000568</v>
       </c>
       <c r="U55">
-        <v>1.000141422712488</v>
+        <v>0.0001414227124876266</v>
       </c>
       <c r="V55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -4743,7 +4743,7 @@
         <v>1.33879104153026</v>
       </c>
       <c r="K56">
-        <v>57.24286683834291</v>
+        <v>0.0724286683834291</v>
       </c>
       <c r="L56">
         <v>0.008836810850305774</v>
@@ -4773,13 +4773,13 @@
         <v>0.04062500000000568</v>
       </c>
       <c r="U56">
-        <v>1.000106052036199</v>
+        <v>0.0001060520361990669</v>
       </c>
       <c r="V56">
-        <v>1.000105992085924</v>
+        <v>0.0001059920859243224</v>
       </c>
       <c r="W56">
-        <v>1.000529661016949</v>
+        <v>0.0005296610169491789</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -4814,7 +4814,7 @@
         <v>1.419261058583483</v>
       </c>
       <c r="K57">
-        <v>58.66506442320382</v>
+        <v>0.08665064423203817</v>
       </c>
       <c r="L57">
         <v>0.0092541795397473</v>
@@ -4844,13 +4844,13 @@
         <v>0.04062500000000568</v>
       </c>
       <c r="U57">
-        <v>1.000123714255417</v>
+        <v>0.0001237142554169068</v>
       </c>
       <c r="V57">
-        <v>1.000105980852793</v>
+        <v>0.0001059808527925643</v>
       </c>
       <c r="W57">
-        <v>1.000529380624669</v>
+        <v>0.0005293806246691179</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -4885,7 +4885,7 @@
         <v>1.213655070715654</v>
       </c>
       <c r="K58">
-        <v>54.82584377173498</v>
+        <v>0.04825843771734983</v>
       </c>
       <c r="L58">
         <v>0.009359825170762901</v>
@@ -4915,13 +4915,13 @@
         <v>0.05000000000001137</v>
       </c>
       <c r="U58">
-        <v>1.000123698952093</v>
+        <v>0.0001236989520929654</v>
       </c>
       <c r="V58">
-        <v>1.000035323207347</v>
+        <v>3.532320734711547E-05</v>
       </c>
       <c r="W58">
-        <v>0.998941798941799</v>
+        <v>-0.00105820105820098</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -4956,7 +4956,7 @@
         <v>1.213655070715654</v>
       </c>
       <c r="K59">
-        <v>54.82584377173498</v>
+        <v>0.04825843771734983</v>
       </c>
       <c r="L59">
         <v>0.009235825949988051</v>
@@ -4986,13 +4986,13 @@
         <v>0.046875</v>
       </c>
       <c r="U59">
-        <v>1.000053007279667</v>
+        <v>5.300727966650598E-05</v>
       </c>
       <c r="V59">
-        <v>1.000070643919325</v>
+        <v>7.064391932498637E-05</v>
       </c>
       <c r="W59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -5027,7 +5027,7 @@
         <v>1.04578653344874</v>
       </c>
       <c r="K60">
-        <v>51.11904474636351</v>
+        <v>0.01119044746363507</v>
       </c>
       <c r="L60">
         <v>0.008560801277274916</v>
@@ -5057,13 +5057,13 @@
         <v>0.03437499999999716</v>
       </c>
       <c r="U60">
-        <v>0.9999823318433188</v>
+        <v>-1.766815668124977E-05</v>
       </c>
       <c r="V60">
-        <v>1.000035319464557</v>
+        <v>3.531946455681556E-05</v>
       </c>
       <c r="W60">
-        <v>0.9989406779661016</v>
+        <v>-0.001059322033898358</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -5098,7 +5098,7 @@
         <v>1.04578653344874</v>
       </c>
       <c r="K61">
-        <v>51.11904474636349</v>
+        <v>0.01119044746363496</v>
       </c>
       <c r="L61">
         <v>0.007563954318614039</v>
@@ -5128,13 +5128,13 @@
         <v>0.01874999999999716</v>
       </c>
       <c r="U61">
-        <v>0.9999823315311496</v>
+        <v>-1.766846885042916E-05</v>
       </c>
       <c r="V61">
-        <v>1.000035318217136</v>
+        <v>3.531821713642636E-05</v>
       </c>
       <c r="W61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -5169,7 +5169,7 @@
         <v>1.122416180494838</v>
       </c>
       <c r="K62">
-        <v>52.88388727950372</v>
+        <v>0.02883887279503716</v>
       </c>
       <c r="L62">
         <v>0.006601287847185979</v>
@@ -5199,13 +5199,13 @@
         <v>0.006249999999994316</v>
       </c>
       <c r="U62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V62">
-        <v>0.999964683030196</v>
+        <v>-3.531696980396681E-05</v>
       </c>
       <c r="W62">
-        <v>1.000530222693531</v>
+        <v>0.0005302226935313126</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -5240,7 +5240,7 @@
         <v>0.9037252018324629</v>
       </c>
       <c r="K63">
-        <v>47.47141031502692</v>
+        <v>-0.02528589684973076</v>
       </c>
       <c r="L63">
         <v>0.005117534464956416</v>
@@ -5270,13 +5270,13 @@
         <v>-0.006250000000008527</v>
       </c>
       <c r="U63">
-        <v>0.9999293248758768</v>
+        <v>-7.067512412317623E-05</v>
       </c>
       <c r="V63">
-        <v>0.9999293635657273</v>
+        <v>-7.063643427274169E-05</v>
       </c>
       <c r="W63">
-        <v>0.9984101748807632</v>
+        <v>-0.001589825119236776</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -5311,7 +5311,7 @@
         <v>0.9037252018324629</v>
       </c>
       <c r="K64">
-        <v>47.47141031502692</v>
+        <v>-0.02528589684973076</v>
       </c>
       <c r="L64">
         <v>0.003394145734038245</v>
@@ -5341,13 +5341,13 @@
         <v>-0.03125</v>
       </c>
       <c r="U64">
-        <v>0.9999823299701375</v>
+        <v>-1.767002986252653E-05</v>
       </c>
       <c r="V64">
-        <v>0.9998587171517375</v>
+        <v>-0.0001412828482625361</v>
       </c>
       <c r="W64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -5382,7 +5382,7 @@
         <v>1.047650944692714</v>
       </c>
       <c r="K65">
-        <v>51.1635514543194</v>
+        <v>0.011635514543194</v>
       </c>
       <c r="L65">
         <v>0.002009131225590661</v>
@@ -5412,13 +5412,13 @@
         <v>-0.05000000000001137</v>
       </c>
       <c r="U65">
-        <v>1.000035340684196</v>
+        <v>3.534068419575043E-05</v>
       </c>
       <c r="V65">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="W65">
-        <v>1.001061571125265</v>
+        <v>0.001061571125265282</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -5453,7 +5453,7 @@
         <v>0.9738792135034308</v>
       </c>
       <c r="K66">
-        <v>49.33833878187998</v>
+        <v>-0.006616612181200188</v>
       </c>
       <c r="L66">
         <v>0.0007170050283717532</v>
@@ -5483,13 +5483,13 @@
         <v>-0.06562500000001137</v>
       </c>
       <c r="U66">
-        <v>1.000053009152914</v>
+        <v>5.300915291361896E-05</v>
       </c>
       <c r="V66">
-        <v>0.9998940228910554</v>
+        <v>-0.0001059771089445549</v>
       </c>
       <c r="W66">
-        <v>0.9994697773064688</v>
+        <v>-0.0005302226935312015</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -5524,7 +5524,7 @@
         <v>1.122124111819698</v>
       </c>
       <c r="K67">
-        <v>52.87740267262167</v>
+        <v>0.02877402672621665</v>
       </c>
       <c r="L67">
         <v>-5.311840693560163E-05</v>
@@ -5554,13 +5554,13 @@
         <v>-0.06874999999999432</v>
       </c>
       <c r="U67">
-        <v>1.000035337562062</v>
+        <v>3.533756206164362E-05</v>
       </c>
       <c r="V67">
-        <v>0.9999646705529058</v>
+        <v>-3.532944709416785E-05</v>
       </c>
       <c r="W67">
-        <v>1.00106100795756</v>
+        <v>0.001061007957559701</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -5595,7 +5595,7 @@
         <v>1.122124111819698</v>
       </c>
       <c r="K68">
-        <v>52.87740267262167</v>
+        <v>0.02877402672621665</v>
       </c>
       <c r="L68">
         <v>-0.0004577592329710303</v>
@@ -5625,13 +5625,13 @@
         <v>-0.05937499999998863</v>
       </c>
       <c r="U68">
-        <v>1.000106008940087</v>
+        <v>0.0001060089400872766</v>
       </c>
       <c r="V68">
-        <v>0.9999646693046917</v>
+        <v>-3.53306953082555E-05</v>
       </c>
       <c r="W68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -5666,7 +5666,7 @@
         <v>1.286384386962399</v>
       </c>
       <c r="K69">
-        <v>56.26282239756891</v>
+        <v>0.06262822397568912</v>
       </c>
       <c r="L69">
         <v>-0.0002275231019661444</v>
@@ -5696,13 +5696,13 @@
         <v>-0.04375000000000284</v>
       </c>
       <c r="U69">
-        <v>1.000052998851692</v>
+        <v>5.299885169152141E-05</v>
       </c>
       <c r="V69">
-        <v>1.00003533194361</v>
+        <v>3.533194361038383E-05</v>
       </c>
       <c r="W69">
-        <v>1.001059883412825</v>
+        <v>0.001059883412824592</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -5737,7 +5737,7 @@
         <v>1.096750189230045</v>
       </c>
       <c r="K70">
-        <v>52.30714630972737</v>
+        <v>0.0230714630972737</v>
       </c>
       <c r="L70">
         <v>-1.252226714863767E-05</v>
@@ -5767,13 +5767,13 @@
         <v>-0.0406250000000199</v>
       </c>
       <c r="U70">
-        <v>0.999982334652346</v>
+        <v>-1.766534765401673E-05</v>
       </c>
       <c r="V70">
-        <v>0.999964669304692</v>
+        <v>-3.533069530803346E-05</v>
       </c>
       <c r="W70">
-        <v>0.9989412387506617</v>
+        <v>-0.001058761249338347</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -5808,7 +5808,7 @@
         <v>0.9494232530899597</v>
       </c>
       <c r="K71">
-        <v>48.70277665894584</v>
+        <v>-0.01297223341054154</v>
       </c>
       <c r="L71">
         <v>-0.0002064201892828931</v>
@@ -5838,13 +5838,13 @@
         <v>-0.02500000000000568</v>
       </c>
       <c r="U71">
-        <v>0.9999823343402759</v>
+        <v>-1.766565972405321E-05</v>
       </c>
       <c r="V71">
-        <v>0.9998586722255591</v>
+        <v>-0.0001413277744408692</v>
       </c>
       <c r="W71">
-        <v>0.9989401165871755</v>
+        <v>-0.001059883412824481</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -5879,7 +5879,7 @@
         <v>1.090823716872408</v>
       </c>
       <c r="K72">
-        <v>52.17196017386554</v>
+        <v>0.02171960173865539</v>
       </c>
       <c r="L72">
         <v>-0.0002489178742638298</v>
@@ -5909,13 +5909,13 @@
         <v>0</v>
       </c>
       <c r="U72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V72">
-        <v>0.999893989186897</v>
+        <v>-0.0001060108131030191</v>
       </c>
       <c r="W72">
-        <v>1.00106100795756</v>
+        <v>0.001061007957559701</v>
       </c>
     </row>
     <row r="73" spans="1:23">
@@ -5950,7 +5950,7 @@
         <v>1.015266283528408</v>
       </c>
       <c r="K73">
-        <v>50.37876591429097</v>
+        <v>0.003787659142909683</v>
       </c>
       <c r="L73">
         <v>-0.0003890853707844421</v>
@@ -5980,13 +5980,13 @@
         <v>0.01250000000000284</v>
       </c>
       <c r="U73">
-        <v>0.9999823340281949</v>
+        <v>-1.766597180508089E-05</v>
       </c>
       <c r="V73">
-        <v>0.9999293186316087</v>
+        <v>-7.068136839127881E-05</v>
       </c>
       <c r="W73">
-        <v>0.9994700582935877</v>
+        <v>-0.0005299417064122958</v>
       </c>
     </row>
     <row r="74" spans="1:23">
@@ -6021,7 +6021,7 @@
         <v>1.015266283528408</v>
       </c>
       <c r="K74">
-        <v>50.37876591429097</v>
+        <v>0.003787659142909683</v>
       </c>
       <c r="L74">
         <v>-0.0005780757613261772</v>
@@ -6051,13 +6051,13 @@
         <v>0.02500000000000568</v>
       </c>
       <c r="U74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V74">
-        <v>0.9999293136353996</v>
+        <v>-7.06863646003919E-05</v>
       </c>
       <c r="W74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:23">
@@ -6092,7 +6092,7 @@
         <v>1.015266283528408</v>
       </c>
       <c r="K75">
-        <v>50.37876591429097</v>
+        <v>0.003787659142909683</v>
       </c>
       <c r="L75">
         <v>-0.0007824980359643542</v>
@@ -6122,13 +6122,13 @@
         <v>0.02499999999999147</v>
       </c>
       <c r="U75">
-        <v>1.000017666283897</v>
+        <v>1.766628389709979E-05</v>
       </c>
       <c r="V75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:23">
@@ -6163,7 +6163,7 @@
         <v>1.338421968364571</v>
       </c>
       <c r="K76">
-        <v>57.23611847953289</v>
+        <v>0.07236118479532894</v>
       </c>
       <c r="L76">
         <v>-0.0002083643394576571</v>
@@ -6193,13 +6193,13 @@
         <v>0.03125</v>
       </c>
       <c r="U76">
-        <v>1.000088329859026</v>
+        <v>8.832985902551549E-05</v>
       </c>
       <c r="V76">
-        <v>1.000141382723031</v>
+        <v>0.0001413827230314357</v>
       </c>
       <c r="W76">
-        <v>1.002120890774125</v>
+        <v>0.00212089077412525</v>
       </c>
     </row>
     <row r="77" spans="1:23">
@@ -6234,7 +6234,7 @@
         <v>1.423462938058292</v>
       </c>
       <c r="K77">
-        <v>58.73673228932429</v>
+        <v>0.08736732289324289</v>
       </c>
       <c r="L77">
         <v>0.0009946267178391308</v>
@@ -6264,13 +6264,13 @@
         <v>0.02812499999998863</v>
       </c>
       <c r="U77">
-        <v>1.00005299323453</v>
+        <v>5.299323453011873E-05</v>
       </c>
       <c r="V77">
-        <v>1.000141362736783</v>
+        <v>0.0001413627367825576</v>
       </c>
       <c r="W77">
-        <v>1.000529100529101</v>
+        <v>0.0005291005291006012</v>
       </c>
     </row>
     <row r="78" spans="1:23">
@@ -6305,7 +6305,7 @@
         <v>1.781530178873985</v>
       </c>
       <c r="K78">
-        <v>64.04856551278482</v>
+        <v>0.1404856551278482</v>
       </c>
       <c r="L78">
         <v>0.003270307592788751</v>
@@ -6335,13 +6335,13 @@
         <v>0.05312499999999432</v>
       </c>
       <c r="U78">
-        <v>1.000158971279189</v>
+        <v>0.0001589712791889575</v>
       </c>
       <c r="V78">
-        <v>1.000388692579505</v>
+        <v>0.0003886925795053564</v>
       </c>
       <c r="W78">
-        <v>1.00211528291909</v>
+        <v>0.002115282919090467</v>
       </c>
     </row>
     <row r="79" spans="1:23">
@@ -6376,7 +6376,7 @@
         <v>1.781530178873985</v>
       </c>
       <c r="K79">
-        <v>64.04856551278482</v>
+        <v>0.1404856551278482</v>
       </c>
       <c r="L79">
         <v>0.006038750503942085</v>
@@ -6406,13 +6406,13 @@
         <v>0.08124999999999716</v>
       </c>
       <c r="U79">
-        <v>1.000123624675485</v>
+        <v>0.0001236246754854342</v>
       </c>
       <c r="V79">
-        <v>1.000388541556286</v>
+        <v>0.0003885415562858707</v>
       </c>
       <c r="W79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:23">
@@ -6447,7 +6447,7 @@
         <v>1.190911769692787</v>
       </c>
       <c r="K80">
-        <v>54.35690227999363</v>
+        <v>0.04356902279993624</v>
       </c>
       <c r="L80">
         <v>0.007942044756548697</v>
@@ -6477,13 +6477,13 @@
         <v>0.08124999999998295</v>
       </c>
       <c r="U80">
-        <v>1.000070633939608</v>
+        <v>7.063393960793363E-05</v>
       </c>
       <c r="V80">
-        <v>1.000141232963774</v>
+        <v>0.0001412329637735521</v>
       </c>
       <c r="W80">
-        <v>0.9973614775725593</v>
+        <v>-0.00263852242744067</v>
       </c>
     </row>
     <row r="81" spans="1:23">
@@ -6518,7 +6518,7 @@
         <v>1.190911769692788</v>
       </c>
       <c r="K81">
-        <v>54.35690227999363</v>
+        <v>0.04356902279993624</v>
       </c>
       <c r="L81">
         <v>0.009170876816193203</v>
@@ -6548,13 +6548,13 @@
         <v>0.09375</v>
       </c>
       <c r="U81">
-        <v>1.000035314475404</v>
+        <v>3.531447540350285E-05</v>
       </c>
       <c r="V81">
-        <v>1.0001765162748</v>
+        <v>0.0001765162748004201</v>
       </c>
       <c r="W81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:23">
@@ -6589,7 +6589,7 @@
         <v>1.558250385607393</v>
       </c>
       <c r="K82">
-        <v>60.910784744685</v>
+        <v>0.10910784744685</v>
       </c>
       <c r="L82">
         <v>0.01084411094735347</v>
@@ -6619,13 +6619,13 @@
         <v>0.1187499999999915</v>
       </c>
       <c r="U82">
-        <v>1.000123596299173</v>
+        <v>0.0001235962991734674</v>
       </c>
       <c r="V82">
-        <v>1.000282376195687</v>
+        <v>0.0002823761956867177</v>
       </c>
       <c r="W82">
-        <v>1.002645502645503</v>
+        <v>0.002645502645502562</v>
       </c>
     </row>
     <row r="83" spans="1:23">
@@ -6660,7 +6660,7 @@
         <v>1.635584831063095</v>
       </c>
       <c r="K83">
-        <v>62.05775704071579</v>
+        <v>0.1205775704071579</v>
       </c>
       <c r="L83">
         <v>0.01283300872662445</v>
@@ -6690,13 +6690,13 @@
         <v>0.1531250000000028</v>
       </c>
       <c r="U83">
-        <v>1.000141235457162</v>
+        <v>0.0001412354571617147</v>
       </c>
       <c r="V83">
-        <v>1.000317583542115</v>
+        <v>0.0003175835421151962</v>
       </c>
       <c r="W83">
-        <v>1.000527704485488</v>
+        <v>0.0005277044854881119</v>
       </c>
     </row>
     <row r="84" spans="1:23">
@@ -6731,7 +6731,7 @@
         <v>1.798394189917228</v>
       </c>
       <c r="K84">
-        <v>64.2652202608533</v>
+        <v>0.142652202608533</v>
       </c>
       <c r="L84">
         <v>0.01522500033038729</v>
@@ -6761,13 +6761,13 @@
         <v>0.1687499999999886</v>
       </c>
       <c r="U84">
-        <v>1.000176519390655</v>
+        <v>0.0001765193906551055</v>
       </c>
       <c r="V84">
-        <v>1.00031748271483</v>
+        <v>0.0003174827148297865</v>
       </c>
       <c r="W84">
-        <v>1.001054852320675</v>
+        <v>0.001054852320675259</v>
       </c>
     </row>
     <row r="85" spans="1:23">
@@ -6802,7 +6802,7 @@
         <v>1.535280474438671</v>
       </c>
       <c r="K85">
-        <v>60.55663229050004</v>
+        <v>0.1055663229050005</v>
       </c>
       <c r="L85">
         <v>0.0172668674712197</v>
@@ -6832,13 +6832,13 @@
         <v>0.1781249999999943</v>
       </c>
       <c r="U85">
-        <v>1.000141190589647</v>
+        <v>0.0001411905896471222</v>
       </c>
       <c r="V85">
-        <v>1.000317381951546</v>
+        <v>0.0003173819515462917</v>
       </c>
       <c r="W85">
-        <v>0.9989462592202317</v>
+        <v>-0.001053740779768275</v>
       </c>
     </row>
     <row r="86" spans="1:23">
@@ -6873,7 +6873,7 @@
         <v>1.535280474438671</v>
       </c>
       <c r="K86">
-        <v>60.55663229050005</v>
+        <v>0.1055663229050005</v>
       </c>
       <c r="L86">
         <v>0.01890316430095014</v>
@@ -6903,13 +6903,13 @@
         <v>0.1562500000000142</v>
       </c>
       <c r="U86">
-        <v>1.000123524325469</v>
+        <v>0.0001235243254691376</v>
       </c>
       <c r="V86">
-        <v>1.000387788197137</v>
+        <v>0.000387788197137473</v>
       </c>
       <c r="W86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:23">
@@ -6944,7 +6944,7 @@
         <v>1.616335769364281</v>
       </c>
       <c r="K87">
-        <v>61.77860610593645</v>
+        <v>0.1177860610593645</v>
       </c>
       <c r="L87">
         <v>0.02031306523306104</v>
@@ -6974,13 +6974,13 @@
         <v>0.1312500000000227</v>
       </c>
       <c r="U87">
-        <v>1.000123509069094</v>
+        <v>0.0001235090690943075</v>
       </c>
       <c r="V87">
-        <v>1.000352398068859</v>
+        <v>0.0003523980688586725</v>
       </c>
       <c r="W87">
-        <v>1.000527426160338</v>
+        <v>0.0005274261603376296</v>
       </c>
     </row>
     <row r="88" spans="1:23">
@@ -7015,7 +7015,7 @@
         <v>1.380725077981222</v>
       </c>
       <c r="K88">
-        <v>57.99598999276439</v>
+        <v>0.07995989992764396</v>
       </c>
       <c r="L88">
         <v>0.02103599981448999</v>
@@ -7045,13 +7045,13 @@
         <v>0.1375000000000171</v>
       </c>
       <c r="U88">
-        <v>1.000123493816488</v>
+        <v>0.0001234938164882404</v>
       </c>
       <c r="V88">
-        <v>1.000317046535386</v>
+        <v>0.0003170465353861118</v>
       </c>
       <c r="W88">
-        <v>0.9989457037427518</v>
+        <v>-0.001054296257248177</v>
       </c>
     </row>
     <row r="89" spans="1:23">
@@ -7086,7 +7086,7 @@
         <v>1.282343415955925</v>
       </c>
       <c r="K89">
-        <v>56.18538415345505</v>
+        <v>0.06185384153455042</v>
       </c>
       <c r="L89">
         <v>0.0210272639752758</v>
@@ -7116,13 +7116,13 @@
         <v>0.1375000000000028</v>
       </c>
       <c r="U89">
-        <v>1.00010583877227</v>
+        <v>0.000105838772270328</v>
       </c>
       <c r="V89">
-        <v>1.000281729821102</v>
+        <v>0.0002817298211015284</v>
       </c>
       <c r="W89">
-        <v>0.9994722955145119</v>
+        <v>-0.0005277044854881119</v>
       </c>
     </row>
     <row r="90" spans="1:23">
@@ -7157,7 +7157,7 @@
         <v>1.115073838720582</v>
       </c>
       <c r="K90">
-        <v>52.72032674732033</v>
+        <v>0.02720326747320323</v>
       </c>
       <c r="L90">
         <v>0.02011398122307324</v>
@@ -7187,13 +7187,13 @@
         <v>0.1000000000000085</v>
       </c>
       <c r="U90">
-        <v>1.00010582757161</v>
+        <v>0.0001058275716099288</v>
       </c>
       <c r="V90">
-        <v>1.000211237853823</v>
+        <v>0.0002112378538232651</v>
       </c>
       <c r="W90">
-        <v>0.9989440337909186</v>
+        <v>-0.001055966209081438</v>
       </c>
     </row>
     <row r="91" spans="1:23">
@@ -7228,7 +7228,7 @@
         <v>1.115073838720582</v>
       </c>
       <c r="K91">
-        <v>52.72032674732033</v>
+        <v>0.02720326747320323</v>
       </c>
       <c r="L91">
         <v>0.01863804355618538</v>
@@ -7258,13 +7258,13 @@
         <v>0.05624999999999147</v>
       </c>
       <c r="U91">
-        <v>1.00010581637332</v>
+        <v>0.0001058163733202999</v>
       </c>
       <c r="V91">
-        <v>1.000070397747272</v>
+        <v>7.03977472722439E-05</v>
       </c>
       <c r="W91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:23">
@@ -7299,7 +7299,7 @@
         <v>1.039922554847124</v>
       </c>
       <c r="K92">
-        <v>50.97853113963231</v>
+        <v>0.009785311396323104</v>
       </c>
       <c r="L92">
         <v>0.01665511430136524</v>
@@ -7329,13 +7329,13 @@
         <v>0.009375000000005684</v>
       </c>
       <c r="U92">
-        <v>1.000070536784933</v>
+        <v>7.053678493340598E-05</v>
       </c>
       <c r="V92">
-        <v>0.9999999999999999</v>
+        <v>-1.110223024625157E-16</v>
       </c>
       <c r="W92">
-        <v>0.9994714587737844</v>
+        <v>-0.0005285412262155953</v>
       </c>
     </row>
     <row r="93" spans="1:23">
@@ -7370,7 +7370,7 @@
         <v>1.181808431560753</v>
       </c>
       <c r="K93">
-        <v>54.1664618426352</v>
+        <v>0.04166461842635205</v>
       </c>
       <c r="L93">
         <v>0.01481624759138088</v>
@@ -7400,13 +7400,13 @@
         <v>-0.015625</v>
       </c>
       <c r="U93">
-        <v>1.000158696572154</v>
+        <v>0.000158696572153838</v>
       </c>
       <c r="V93">
-        <v>0.999929607208222</v>
+        <v>-7.039279177800672E-05</v>
       </c>
       <c r="W93">
-        <v>1.001057641459545</v>
+        <v>0.001057641459545344</v>
       </c>
     </row>
     <row r="94" spans="1:23">
@@ -7441,7 +7441,7 @@
         <v>1.181808431560753</v>
       </c>
       <c r="K94">
-        <v>54.1664618426352</v>
+        <v>0.04166461842635205</v>
       </c>
       <c r="L94">
         <v>0.01312791359357637</v>
@@ -7471,13 +7471,13 @@
         <v>-0.02812500000000284</v>
       </c>
       <c r="U94">
-        <v>1.000158671391548</v>
+        <v>0.0001586713915480154</v>
       </c>
       <c r="V94">
-        <v>0.9999296022527279</v>
+        <v>-7.039774727213288E-05</v>
       </c>
       <c r="W94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:23">
@@ -7512,7 +7512,7 @@
         <v>1.26041556547411</v>
       </c>
       <c r="K95">
-        <v>55.76034711164912</v>
+        <v>0.05760347111649122</v>
       </c>
       <c r="L95">
         <v>0.01178310533865143</v>
@@ -7542,13 +7542,13 @@
         <v>-0.04374999999998863</v>
       </c>
       <c r="U95">
-        <v>1.000141018861273</v>
+        <v>0.0001410188612727126</v>
       </c>
       <c r="V95">
-        <v>1.000140805406928</v>
+        <v>0.0001408054069276243</v>
       </c>
       <c r="W95">
-        <v>1.000528262017961</v>
+        <v>0.0005282620179609676</v>
       </c>
     </row>
     <row r="96" spans="1:23">
@@ -7583,7 +7583,7 @@
         <v>1.26041556547411</v>
       </c>
       <c r="K96">
-        <v>55.76034711164912</v>
+        <v>0.05760347111649122</v>
       </c>
       <c r="L96">
         <v>0.01068913734688704</v>
@@ -7613,13 +7613,13 @@
         <v>-0.06249999999998579</v>
       </c>
       <c r="U96">
-        <v>1.000158623849977</v>
+        <v>0.0001586238499771131</v>
       </c>
       <c r="V96">
-        <v>1.000140785583556</v>
+        <v>0.0001407855835562355</v>
       </c>
       <c r="W96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:23">
@@ -7654,7 +7654,7 @@
         <v>1.073426188903942</v>
       </c>
       <c r="K97">
-        <v>51.77064872858475</v>
+        <v>0.01770648728584756</v>
       </c>
       <c r="L97">
         <v>0.009392910097236203</v>
@@ -7684,13 +7684,13 @@
         <v>-0.08124999999999716</v>
       </c>
       <c r="U97">
-        <v>1.00008811038469</v>
+        <v>8.811038468992116E-05</v>
       </c>
       <c r="V97">
-        <v>0.9998944256756757</v>
+        <v>-0.0001055743243243423</v>
       </c>
       <c r="W97">
-        <v>0.9989440337909186</v>
+        <v>-0.001055966209081438</v>
       </c>
     </row>
     <row r="98" spans="1:23">
@@ -7725,7 +7725,7 @@
         <v>1.229589702031774</v>
       </c>
       <c r="K98">
-        <v>55.14869847628364</v>
+        <v>0.05148698476283642</v>
       </c>
       <c r="L98">
         <v>0.008407575548622767</v>
@@ -7755,13 +7755,13 @@
         <v>-0.06562499999999716</v>
       </c>
       <c r="U98">
-        <v>1.000123343670708</v>
+        <v>0.0001233436707077651</v>
       </c>
       <c r="V98">
-        <v>0.9999296096857073</v>
+        <v>-7.039031429267872E-05</v>
       </c>
       <c r="W98">
-        <v>1.001057082452431</v>
+        <v>0.001057082452431413</v>
       </c>
     </row>
     <row r="99" spans="1:23">
@@ -7796,7 +7796,7 @@
         <v>1.136203623371636</v>
       </c>
       <c r="K99">
-        <v>53.18798315575979</v>
+        <v>0.03187983155759788</v>
       </c>
       <c r="L99">
         <v>0.007450263592700779</v>
@@ -7826,13 +7826,13 @@
         <v>-0.05000000000001137</v>
       </c>
       <c r="U99">
-        <v>1.000070473405098</v>
+        <v>7.047340509847011E-05</v>
       </c>
       <c r="V99">
-        <v>0.9998240118264055</v>
+        <v>-0.0001759881735945434</v>
       </c>
       <c r="W99">
-        <v>0.9994720168954594</v>
+        <v>-0.000527983104540608</v>
       </c>
     </row>
     <row r="100" spans="1:23">
@@ -7867,7 +7867,7 @@
         <v>1.136203623371636</v>
       </c>
       <c r="K100">
-        <v>53.18798315575979</v>
+        <v>0.03187983155759788</v>
       </c>
       <c r="L100">
         <v>0.006543820495469704</v>
@@ -7897,13 +7897,13 @@
         <v>-0.02187499999999432</v>
       </c>
       <c r="U100">
-        <v>1.000105702658422</v>
+        <v>0.0001057026584219134</v>
       </c>
       <c r="V100">
-        <v>0.9998943885094697</v>
+        <v>-0.000105611490530344</v>
       </c>
       <c r="W100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:23">
@@ -7938,7 +7938,7 @@
         <v>0.9725206392147951</v>
       </c>
       <c r="K101">
-        <v>49.3034455447791</v>
+        <v>-0.006965544552208991</v>
       </c>
       <c r="L101">
         <v>0.005317293014660707</v>
@@ -7968,13 +7968,13 @@
         <v>-0.01874999999998295</v>
       </c>
       <c r="U101">
-        <v>1.000105691486551</v>
+        <v>0.0001056914865507075</v>
       </c>
       <c r="V101">
-        <v>0.9998239622575081</v>
+        <v>-0.0001760377424918635</v>
       </c>
       <c r="W101">
-        <v>0.9989434759640781</v>
+        <v>-0.001056524035921935</v>
       </c>
     </row>
     <row r="102" spans="1:23">
@@ -8009,7 +8009,7 @@
         <v>1.04834238212938</v>
       </c>
       <c r="K102">
-        <v>51.18003666162306</v>
+        <v>0.01180036661623063</v>
       </c>
       <c r="L102">
         <v>0.00414813735223747</v>
@@ -8039,13 +8039,13 @@
         <v>-0.01250000000000284</v>
       </c>
       <c r="U102">
-        <v>1.000088066930868</v>
+        <v>8.806693086760298E-05</v>
       </c>
       <c r="V102">
-        <v>0.999823931262765</v>
+        <v>-0.000176068737234969</v>
       </c>
       <c r="W102">
-        <v>1.000528820729773</v>
+        <v>0.0005288207297726721</v>
       </c>
     </row>
     <row r="103" spans="1:23">
@@ -8080,7 +8080,7 @@
         <v>1.287779465017566</v>
       </c>
       <c r="K103">
-        <v>56.2894931399202</v>
+        <v>0.06289493139920199</v>
       </c>
       <c r="L103">
         <v>0.003650361797042115</v>
@@ -8110,13 +8110,13 @@
         <v>0</v>
       </c>
       <c r="U103">
-        <v>1.000158506516379</v>
+        <v>0.0001585065163789423</v>
       </c>
       <c r="V103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W103">
-        <v>1.001585623678647</v>
+        <v>0.001585623678646897</v>
       </c>
     </row>
     <row r="104" spans="1:23">
@@ -8151,7 +8151,7 @@
         <v>1.187974176793721</v>
       </c>
       <c r="K104">
-        <v>54.29562146545031</v>
+        <v>0.04295621465450306</v>
       </c>
       <c r="L104">
         <v>0.003385289494927233</v>
@@ -8181,13 +8181,13 @@
         <v>0.003124999999982947</v>
       </c>
       <c r="U104">
-        <v>1.00014087235204</v>
+        <v>0.0001408723520399668</v>
       </c>
       <c r="V104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W104">
-        <v>0.9994722955145119</v>
+        <v>-0.0005277044854881119</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -8222,7 +8222,7 @@
         <v>1.43271685436607</v>
       </c>
       <c r="K105">
-        <v>58.89369540868393</v>
+        <v>0.08893695408683921</v>
       </c>
       <c r="L105">
         <v>0.003842913740419438</v>
@@ -8252,13 +8252,13 @@
         <v>0.02499999999999147</v>
       </c>
       <c r="U105">
-        <v>1.000193672200997</v>
+        <v>0.0001936722009967529</v>
       </c>
       <c r="V105">
-        <v>1.000176099742894</v>
+        <v>0.0001760997428943423</v>
       </c>
       <c r="W105">
-        <v>1.001583949313622</v>
+        <v>0.001583949313621824</v>
       </c>
     </row>
     <row r="106" spans="1:23">
@@ -8293,7 +8293,7 @@
         <v>1.319412778495165</v>
       </c>
       <c r="K106">
-        <v>56.88563893104013</v>
+        <v>0.06885638931040128</v>
       </c>
       <c r="L106">
         <v>0.004502737703877128</v>
@@ -8323,13 +8323,13 @@
         <v>0.02499999999999147</v>
       </c>
       <c r="U106">
-        <v>1.000105618926912</v>
+        <v>0.0001056189269115215</v>
       </c>
       <c r="V106">
-        <v>1.000140854989788</v>
+        <v>0.0001408549897878864</v>
       </c>
       <c r="W106">
-        <v>0.9994728518713759</v>
+        <v>-0.0005271481286240887</v>
       </c>
     </row>
     <row r="107" spans="1:23">
@@ -8364,7 +8364,7 @@
         <v>1.485904081953659</v>
       </c>
       <c r="K107">
-        <v>59.77318645319151</v>
+        <v>0.09773186453191507</v>
       </c>
       <c r="L107">
         <v>0.005611302178195459</v>
@@ -8394,13 +8394,13 @@
         <v>0.03750000000000853</v>
       </c>
       <c r="U107">
-        <v>1.000123209068188</v>
+        <v>0.0001232090681875242</v>
       </c>
       <c r="V107">
-        <v>1.000246461516795</v>
+        <v>0.0002464615167947493</v>
       </c>
       <c r="W107">
-        <v>1.001054852320675</v>
+        <v>0.001054852320675259</v>
       </c>
     </row>
     <row r="108" spans="1:23">
@@ -8435,7 +8435,7 @@
         <v>1.485904081953659</v>
       </c>
       <c r="K108">
-        <v>59.77318645319151</v>
+        <v>0.09773186453191507</v>
       </c>
       <c r="L108">
         <v>0.006900505394770844</v>
@@ -8465,13 +8465,13 @@
         <v>0.046875</v>
       </c>
       <c r="U108">
-        <v>1.00005279738125</v>
+        <v>5.279738125008038E-05</v>
       </c>
       <c r="V108">
-        <v>1.000176000563202</v>
+        <v>0.0001760005632016615</v>
       </c>
       <c r="W108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:23">
@@ -8506,7 +8506,7 @@
         <v>1.670381980522602</v>
       </c>
       <c r="K109">
-        <v>62.55217391017981</v>
+        <v>0.1255217391017981</v>
       </c>
       <c r="L109">
         <v>0.008576403127517207</v>
@@ -8536,13 +8536,13 @@
         <v>0.08125000000001137</v>
       </c>
       <c r="U109">
-        <v>1.000087990989723</v>
+        <v>8.799098972267494E-05</v>
       </c>
       <c r="V109">
-        <v>1.000246357429436</v>
+        <v>0.0002463574294364612</v>
       </c>
       <c r="W109">
-        <v>1.001053740779768</v>
+        <v>0.001053740779768164</v>
       </c>
     </row>
     <row r="110" spans="1:23">
@@ -8577,7 +8577,7 @@
         <v>1.522551889454814</v>
       </c>
       <c r="K110">
-        <v>60.35760436959238</v>
+        <v>0.1035760436959238</v>
       </c>
       <c r="L110">
         <v>0.01015592223379889</v>
@@ -8607,13 +8607,13 @@
         <v>0.1062500000000028</v>
       </c>
       <c r="U110">
-        <v>1.000158369846381</v>
+        <v>0.0001583698463811789</v>
       </c>
       <c r="V110">
-        <v>1.000175926251715</v>
+        <v>0.0001759262517151416</v>
       </c>
       <c r="W110">
-        <v>0.9994736842105263</v>
+        <v>-0.0005263157894737081</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -8648,7 +8648,7 @@
         <v>1.522551889454814</v>
       </c>
       <c r="K111">
-        <v>60.35760436959238</v>
+        <v>0.1035760436959238</v>
       </c>
       <c r="L111">
         <v>0.01153918040469417</v>
@@ -8678,13 +8678,13 @@
         <v>0.1156249999999943</v>
       </c>
       <c r="U111">
-        <v>1.000158344769345</v>
+        <v>0.0001583447693445095</v>
       </c>
       <c r="V111">
-        <v>1.000175895307113</v>
+        <v>0.0001758953071131497</v>
       </c>
       <c r="W111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:23">
@@ -8719,7 +8719,7 @@
         <v>1.386581244096467</v>
       </c>
       <c r="K112">
-        <v>58.09905895834739</v>
+        <v>0.08099058958347394</v>
       </c>
       <c r="L112">
         <v>0.0124808613047238</v>
@@ -8749,13 +8749,13 @@
         <v>0.1281249999999972</v>
       </c>
       <c r="U112">
-        <v>1.000052773233416</v>
+        <v>5.277323341590368E-05</v>
       </c>
       <c r="V112">
-        <v>1.000211037248074</v>
+        <v>0.0002110372480743639</v>
       </c>
       <c r="W112">
-        <v>0.9994734070563455</v>
+        <v>-0.0005265929436545358</v>
       </c>
     </row>
     <row r="113" spans="1:23">
@@ -8790,7 +8790,7 @@
         <v>1.480585918817471</v>
       </c>
       <c r="K113">
-        <v>59.68694362029138</v>
+        <v>0.09686943620291377</v>
       </c>
       <c r="L113">
         <v>0.0132417349140249</v>
@@ -8820,13 +8820,13 @@
         <v>0.1187499999999915</v>
       </c>
       <c r="U113">
-        <v>1.000052770448549</v>
+        <v>5.277044854890001E-05</v>
       </c>
       <c r="V113">
-        <v>1.000175827267293</v>
+        <v>0.0001758272672927053</v>
       </c>
       <c r="W113">
-        <v>1.000526870389884</v>
+        <v>0.0005268703898839711</v>
       </c>
     </row>
     <row r="114" spans="1:23">
@@ -8861,7 +8861,7 @@
         <v>1.480585918817471</v>
       </c>
       <c r="K114">
-        <v>59.68694362029138</v>
+        <v>0.09686943620291377</v>
       </c>
       <c r="L114">
         <v>0.0137962076007884</v>
@@ -8891,13 +8891,13 @@
         <v>0.1218750000000028</v>
       </c>
       <c r="U114">
-        <v>1.000017589221325</v>
+        <v>1.758922132499841E-05</v>
       </c>
       <c r="V114">
-        <v>1.000210955628999</v>
+        <v>0.0002109556289990877</v>
       </c>
       <c r="W114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:23">
@@ -8932,7 +8932,7 @@
         <v>1.480585918817471</v>
       </c>
       <c r="K115">
-        <v>59.68694362029139</v>
+        <v>0.09686943620291388</v>
       </c>
       <c r="L115">
         <v>0.01413993828803536</v>
@@ -8962,13 +8962,13 @@
         <v>0.109375</v>
       </c>
       <c r="U115">
-        <v>1.00005276673585</v>
+        <v>5.276673584986291E-05</v>
       </c>
       <c r="V115">
-        <v>1.000210911136108</v>
+        <v>0.0002109111361081606</v>
       </c>
       <c r="W115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:23">
@@ -9003,7 +9003,7 @@
         <v>1.590228344501686</v>
       </c>
       <c r="K116">
-        <v>61.39336510147015</v>
+        <v>0.1139336510147014</v>
       </c>
       <c r="L116">
         <v>0.01447469384497763</v>
@@ -9033,13 +9033,13 @@
         <v>0.09999999999999432</v>
       </c>
       <c r="U116">
-        <v>1.000070351935558</v>
+        <v>7.035193555759989E-05</v>
       </c>
       <c r="V116">
-        <v>1.000316299992971</v>
+        <v>0.0003162999929713362</v>
       </c>
       <c r="W116">
-        <v>1.000526592943654</v>
+        <v>0.0005265929436544248</v>
       </c>
     </row>
     <row r="117" spans="1:23">
@@ -9074,7 +9074,7 @@
         <v>1.590228344501686</v>
       </c>
       <c r="K117">
-        <v>61.39336510147014</v>
+        <v>0.1139336510147014</v>
       </c>
       <c r="L117">
         <v>0.01472980057335629</v>
@@ -9104,13 +9104,13 @@
         <v>0.07187499999999147</v>
       </c>
       <c r="U117">
-        <v>1.000052760239883</v>
+        <v>5.276023988320944E-05</v>
       </c>
       <c r="V117">
-        <v>1.000281066647929</v>
+        <v>0.0002810666479287072</v>
       </c>
       <c r="W117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:23">
@@ -9145,7 +9145,7 @@
         <v>1.417963563717408</v>
       </c>
       <c r="K118">
-        <v>58.64288382978827</v>
+        <v>0.08642883829788273</v>
       </c>
       <c r="L118">
         <v>0.01467448677216594</v>
@@ -9175,13 +9175,13 @@
         <v>0.04999999999999716</v>
       </c>
       <c r="U118">
-        <v>1.000070343275183</v>
+        <v>7.03432751827382E-05</v>
       </c>
       <c r="V118">
-        <v>1.000140493835833</v>
+        <v>0.0001404938358329222</v>
       </c>
       <c r="W118">
-        <v>0.9994736842105263</v>
+        <v>-0.0005263157894737081</v>
       </c>
     </row>
     <row r="119" spans="1:23">
@@ -9216,7 +9216,7 @@
         <v>1.531992060832895</v>
       </c>
       <c r="K119">
-        <v>60.50540538934189</v>
+        <v>0.1050540538934189</v>
       </c>
       <c r="L119">
         <v>0.01457329687350487</v>
@@ -9246,13 +9246,13 @@
         <v>0.04062500000000568</v>
       </c>
       <c r="U119">
-        <v>1.000105507491032</v>
+        <v>0.0001055074910316645</v>
       </c>
       <c r="V119">
-        <v>1.000210711150132</v>
+        <v>0.0002107111501317149</v>
       </c>
       <c r="W119">
-        <v>1.000526592943654</v>
+        <v>0.0005265929436544248</v>
       </c>
     </row>
     <row r="120" spans="1:23">
@@ -9287,7 +9287,7 @@
         <v>1.36781342016377</v>
       </c>
       <c r="K120">
-        <v>57.76694263643312</v>
+        <v>0.07766942636433116</v>
       </c>
       <c r="L120">
         <v>0.01420552130832871</v>
@@ -9317,13 +9317,13 @@
         <v>0.03125</v>
       </c>
       <c r="U120">
-        <v>1.000123079087105</v>
+        <v>0.0001230790871049603</v>
       </c>
       <c r="V120">
-        <v>1.000070222253432</v>
+        <v>7.02222534321173E-05</v>
       </c>
       <c r="W120">
-        <v>0.9994736842105263</v>
+        <v>-0.0005263157894737081</v>
       </c>
     </row>
     <row r="121" spans="1:23">
@@ -9358,7 +9358,7 @@
         <v>1.36781342016377</v>
       </c>
       <c r="K121">
-        <v>57.76694263643312</v>
+        <v>0.07766942636433116</v>
       </c>
       <c r="L121">
         <v>0.01364797281124734</v>
@@ -9388,13 +9388,13 @@
         <v>0.02499999999999147</v>
       </c>
       <c r="U121">
-        <v>1.000123063940507</v>
+        <v>0.0001230639405074285</v>
       </c>
       <c r="V121">
-        <v>1.00010532598392</v>
+        <v>0.0001053259839203236</v>
       </c>
       <c r="W121">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data_clean/SpareBank 1 SR-Bk 14.01.2021.xlsx
+++ b/data_clean/SpareBank 1 SR-Bk 14.01.2021.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="144">
   <si>
     <t>tid</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>open_15_sma</t>
+  </si>
+  <si>
+    <t>open_3_sma</t>
   </si>
   <si>
     <t>sma8-16</t>
@@ -800,13 +803,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W121"/>
+  <dimension ref="A1:X121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:24">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -876,10 +879,13 @@
       <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:23">
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2">
         <v>93.5</v>
@@ -936,7 +942,7 @@
         <v>93.5</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>93.5</v>
       </c>
       <c r="U2">
         <v>0</v>
@@ -947,10 +953,13 @@
       <c r="W2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:23">
+      <c r="X2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3">
         <v>93.84999999999999</v>
@@ -1007,7 +1016,7 @@
         <v>93.675</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>93.675</v>
       </c>
       <c r="U3">
         <v>0</v>
@@ -1018,10 +1027,13 @@
       <c r="W3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:23">
+      <c r="X3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4">
         <v>94.05</v>
@@ -1078,21 +1090,24 @@
         <v>93.8</v>
       </c>
       <c r="T4">
+        <v>93.8</v>
+      </c>
+      <c r="U4">
         <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0.001334400854016593</v>
       </c>
       <c r="V4">
         <v>0.001334400854016593</v>
       </c>
       <c r="W4">
+        <v>0.001334400854016593</v>
+      </c>
+      <c r="X4">
         <v>0.002131060202450685</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:24">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5">
         <v>94.05</v>
@@ -1149,21 +1164,24 @@
         <v>93.8625</v>
       </c>
       <c r="T5">
+        <v>93.98333333333333</v>
+      </c>
+      <c r="U5">
         <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0.0006663113006397658</v>
       </c>
       <c r="V5">
         <v>0.0006663113006397658</v>
       </c>
       <c r="W5">
+        <v>0.0006663113006397658</v>
+      </c>
+      <c r="X5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:24">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B6">
         <v>94.25</v>
@@ -1220,21 +1238,24 @@
         <v>93.94</v>
       </c>
       <c r="T6">
+        <v>94.11666666666667</v>
+      </c>
+      <c r="U6">
         <v>0</v>
-      </c>
-      <c r="U6">
-        <v>0.0008256758556399735</v>
       </c>
       <c r="V6">
         <v>0.0008256758556399735</v>
       </c>
       <c r="W6">
+        <v>0.0008256758556399735</v>
+      </c>
+      <c r="X6">
         <v>0.002126528442317976</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:24">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B7">
         <v>94</v>
@@ -1291,21 +1312,24 @@
         <v>93.95</v>
       </c>
       <c r="T7">
+        <v>94.09999999999998</v>
+      </c>
+      <c r="U7">
         <v>0</v>
-      </c>
-      <c r="U7">
-        <v>0.0001064509261230473</v>
       </c>
       <c r="V7">
         <v>0.0001064509261230473</v>
       </c>
       <c r="W7">
+        <v>0.0001064509261230473</v>
+      </c>
+      <c r="X7">
         <v>-0.002652519893899252</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:24">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B8">
         <v>94.05</v>
@@ -1362,21 +1386,24 @@
         <v>93.96428571428571</v>
       </c>
       <c r="T8">
+        <v>94.10000000000001</v>
+      </c>
+      <c r="U8">
         <v>0</v>
-      </c>
-      <c r="U8">
-        <v>0.0001520565650421357</v>
       </c>
       <c r="V8">
         <v>0.0001520565650421357</v>
       </c>
       <c r="W8">
+        <v>0.0001520565650421357</v>
+      </c>
+      <c r="X8">
         <v>0.0005319148936169249</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:24">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B9">
         <v>94.3</v>
@@ -1433,21 +1460,24 @@
         <v>94.00624999999999</v>
       </c>
       <c r="T9">
+        <v>94.11666666666667</v>
+      </c>
+      <c r="U9">
         <v>0</v>
-      </c>
-      <c r="U9">
-        <v>0.0004465982516153044</v>
       </c>
       <c r="V9">
         <v>0.0004465982516153044</v>
       </c>
       <c r="W9">
+        <v>0.0004465982516153044</v>
+      </c>
+      <c r="X9">
         <v>0.002658160552897471</v>
       </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:24">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B10">
         <v>94.25</v>
@@ -1504,21 +1534,24 @@
         <v>94.03333333333333</v>
       </c>
       <c r="T10">
+        <v>94.2</v>
+      </c>
+      <c r="U10">
         <v>0.06666666666666288</v>
-      </c>
-      <c r="U10">
-        <v>0.0002881014116968839</v>
       </c>
       <c r="V10">
         <v>0.0002881014116968839</v>
       </c>
       <c r="W10">
+        <v>0.0002881014116968839</v>
+      </c>
+      <c r="X10">
         <v>-0.0005302226935312015</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:24">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B11">
         <v>94.34999999999999</v>
@@ -1575,21 +1608,24 @@
         <v>94.065</v>
       </c>
       <c r="T11">
+        <v>94.3</v>
+      </c>
+      <c r="U11">
         <v>0.09749999999999659</v>
-      </c>
-      <c r="U11">
-        <v>0.0003367600141792604</v>
       </c>
       <c r="V11">
         <v>0.0003367600141792604</v>
       </c>
       <c r="W11">
+        <v>0.0003367600141792604</v>
+      </c>
+      <c r="X11">
         <v>0.001061007957559701</v>
       </c>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:24">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B12">
         <v>93.75</v>
@@ -1646,21 +1682,24 @@
         <v>94.03636363636365</v>
       </c>
       <c r="T12">
+        <v>94.11666666666667</v>
+      </c>
+      <c r="U12">
         <v>0.08863636363635408</v>
-      </c>
-      <c r="U12">
-        <v>-0.0003044316550933068</v>
       </c>
       <c r="V12">
         <v>-0.0003044316550933068</v>
       </c>
       <c r="W12">
+        <v>-0.0003044316550933068</v>
+      </c>
+      <c r="X12">
         <v>-0.006359300476947438</v>
       </c>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:24">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B13">
         <v>94.2</v>
@@ -1717,21 +1756,24 @@
         <v>94.05</v>
       </c>
       <c r="T13">
+        <v>94.10000000000001</v>
+      </c>
+      <c r="U13">
         <v>0.09375000000001421</v>
-      </c>
-      <c r="U13">
-        <v>0.0001450116009278357</v>
       </c>
       <c r="V13">
         <v>0.0001450116009278357</v>
       </c>
       <c r="W13">
+        <v>0.0001450116009278357</v>
+      </c>
+      <c r="X13">
         <v>0.004800000000000137</v>
       </c>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:24">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B14">
         <v>94</v>
@@ -1788,21 +1830,24 @@
         <v>94.04615384615384</v>
       </c>
       <c r="T14">
+        <v>93.98333333333333</v>
+      </c>
+      <c r="U14">
         <v>0.06634615384616893</v>
-      </c>
-      <c r="U14">
-        <v>-4.089477773694394E-05</v>
       </c>
       <c r="V14">
         <v>-4.089477773694394E-05</v>
       </c>
       <c r="W14">
+        <v>-4.089477773694394E-05</v>
+      </c>
+      <c r="X14">
         <v>-0.002123142250530785</v>
       </c>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:24">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B15">
         <v>94</v>
@@ -1859,21 +1904,24 @@
         <v>94.04285714285713</v>
       </c>
       <c r="T15">
+        <v>94.06666666666666</v>
+      </c>
+      <c r="U15">
         <v>0.0696428571428811</v>
-      </c>
-      <c r="U15">
-        <v>-3.505410016135801E-05</v>
       </c>
       <c r="V15">
         <v>-3.505410016135801E-05</v>
       </c>
       <c r="W15">
+        <v>-3.505410016135801E-05</v>
+      </c>
+      <c r="X15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="1:24">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B16">
         <v>94</v>
@@ -1930,21 +1978,24 @@
         <v>94.03999999999999</v>
       </c>
       <c r="T16">
+        <v>94</v>
+      </c>
+      <c r="U16">
         <v>0.0662500000000108</v>
-      </c>
-      <c r="U16">
-        <v>-3.03812851283336E-05</v>
       </c>
       <c r="V16">
         <v>-3.03812851283336E-05</v>
       </c>
       <c r="W16">
+        <v>-3.03812851283336E-05</v>
+      </c>
+      <c r="X16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:23">
+    <row r="17" spans="1:24">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B17">
         <v>94.05</v>
@@ -2001,21 +2052,24 @@
         <v>94.07666666666667</v>
       </c>
       <c r="T17">
+        <v>94.01666666666667</v>
+      </c>
+      <c r="U17">
         <v>0.03437499999999716</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>6.646108039243259E-06</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>0.0003899050049624986</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>0.0005319148936169249</v>
       </c>
     </row>
-    <row r="18" spans="1:23">
+    <row r="18" spans="1:24">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B18">
         <v>94.2</v>
@@ -2072,21 +2126,24 @@
         <v>94.09999999999999</v>
       </c>
       <c r="T18">
+        <v>94.08333333333333</v>
+      </c>
+      <c r="U18">
         <v>-0.01562499999998579</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>9.96909580299743E-05</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>0.0002480246607377001</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>0.001594896331738482</v>
       </c>
     </row>
-    <row r="19" spans="1:23">
+    <row r="19" spans="1:24">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B19">
         <v>94</v>
@@ -2143,21 +2200,24 @@
         <v>94.09666666666665</v>
       </c>
       <c r="T19">
+        <v>94.08333333333333</v>
+      </c>
+      <c r="U19">
         <v>-0.06874999999999432</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>-2.953511725445335E-05</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>-3.542330853711917E-05</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>-0.002123142250530785</v>
       </c>
     </row>
-    <row r="20" spans="1:23">
+    <row r="20" spans="1:24">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B20">
         <v>94</v>
@@ -2214,21 +2274,24 @@
         <v>94.09333333333332</v>
       </c>
       <c r="T20">
+        <v>94.06666666666666</v>
+      </c>
+      <c r="U20">
         <v>-0.03437499999998295</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>-2.642693806620411E-05</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>-3.542456339222788E-05</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:23">
+    <row r="21" spans="1:24">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B21">
         <v>94.05</v>
@@ -2285,21 +2348,24 @@
         <v>94.07999999999998</v>
       </c>
       <c r="T21">
+        <v>94.01666666666667</v>
+      </c>
+      <c r="U21">
         <v>-0.05312499999999432</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>2.798220332111967E-06</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>-0.0001417032733456169</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>0.0005319148936169249</v>
       </c>
     </row>
-    <row r="22" spans="1:23">
+    <row r="22" spans="1:24">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B22">
         <v>94.25</v>
@@ -2356,21 +2422,24 @@
         <v>94.09666666666665</v>
       </c>
       <c r="T22">
+        <v>94.10000000000001</v>
+      </c>
+      <c r="U22">
         <v>-0.02187499999999432</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>0.0001038003589972636</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>0.0001771541950112976</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>0.002126528442317976</v>
       </c>
     </row>
-    <row r="23" spans="1:23">
+    <row r="23" spans="1:24">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B23">
         <v>94.15000000000001</v>
@@ -2427,21 +2496,24 @@
         <v>94.10333333333332</v>
       </c>
       <c r="T23">
+        <v>94.15000000000002</v>
+      </c>
+      <c r="U23">
         <v>-0.01250000000000284</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>4.602642376982935E-05</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>7.084912678467781E-05</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>-0.00106100795755959</v>
       </c>
     </row>
-    <row r="24" spans="1:23">
+    <row r="24" spans="1:24">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B24">
         <v>93.90000000000001</v>
@@ -2498,21 +2570,24 @@
         <v>94.07666666666667</v>
       </c>
       <c r="T24">
+        <v>94.10000000000001</v>
+      </c>
+      <c r="U24">
         <v>-0.01562500000001421</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>-7.35388358592548E-05</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>-0.0002833764301652941</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>-0.002655337227827959</v>
       </c>
     </row>
-    <row r="25" spans="1:23">
+    <row r="25" spans="1:24">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B25">
         <v>94</v>
@@ -2569,21 +2644,24 @@
         <v>94.06</v>
       </c>
       <c r="T25">
+        <v>94.01666666666667</v>
+      </c>
+      <c r="U25">
         <v>-0.003125000000011369</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>-2.311390532538926E-05</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>-0.0001771604719554842</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>0.001064962726304408</v>
       </c>
     </row>
-    <row r="26" spans="1:23">
+    <row r="26" spans="1:24">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B26">
         <v>94.15000000000001</v>
@@ -2640,21 +2718,24 @@
         <v>94.04666666666667</v>
       </c>
       <c r="T26">
+        <v>94.01666666666667</v>
+      </c>
+      <c r="U26">
         <v>-0.003124999999997158</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>4.253056884651052E-05</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>-0.0001417534906796858</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>0.001595744680851219</v>
       </c>
     </row>
-    <row r="27" spans="1:23">
+    <row r="27" spans="1:24">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B27">
         <v>94.15000000000001</v>
@@ -2711,21 +2792,24 @@
         <v>94.07333333333332</v>
       </c>
       <c r="T27">
+        <v>94.10000000000001</v>
+      </c>
+      <c r="U27">
         <v>0.02812500000000284</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>3.925731699139234E-05</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>0.000283547175161214</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:23">
+    <row r="28" spans="1:24">
       <c r="A28" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B28">
         <v>94.05</v>
@@ -2782,21 +2866,24 @@
         <v>94.06333333333333</v>
       </c>
       <c r="T28">
+        <v>94.11666666666667</v>
+      </c>
+      <c r="U28">
         <v>0.015625</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>-3.028995055109895E-06</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>-0.0001063000496065447</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>-0.001062134891131272</v>
       </c>
     </row>
-    <row r="29" spans="1:23">
+    <row r="29" spans="1:24">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B29">
         <v>94.25</v>
@@ -2853,21 +2940,24 @@
         <v>94.08</v>
       </c>
       <c r="T29">
+        <v>94.14999999999999</v>
+      </c>
+      <c r="U29">
         <v>0.03749999999999432</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>7.312881641019509E-05</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>0.0001771855841807835</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>0.002126528442317976</v>
       </c>
     </row>
-    <row r="30" spans="1:23">
+    <row r="30" spans="1:24">
       <c r="A30" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B30">
         <v>94.34999999999999</v>
@@ -2924,21 +3014,24 @@
         <v>94.10333333333334</v>
       </c>
       <c r="T30">
+        <v>94.21666666666665</v>
+      </c>
+      <c r="U30">
         <v>0.02812499999998863</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>0.00010473918633358</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>0.0002480158730160387</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>0.001061007957559701</v>
       </c>
     </row>
-    <row r="31" spans="1:23">
+    <row r="31" spans="1:24">
       <c r="A31" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B31">
         <v>94.34999999999999</v>
@@ -2995,21 +3088,24 @@
         <v>94.12666666666668</v>
       </c>
       <c r="T31">
+        <v>94.31666666666666</v>
+      </c>
+      <c r="U31">
         <v>0.03125</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>9.774633603965022E-05</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>0.0002479543763949099</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:23">
+    <row r="32" spans="1:24">
       <c r="A32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B32">
         <v>94.34999999999999</v>
@@ -3066,21 +3162,24 @@
         <v>94.14666666666666</v>
       </c>
       <c r="T32">
+        <v>94.34999999999998</v>
+      </c>
+      <c r="U32">
         <v>0.06562499999999716</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>0.0003011514614703614</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>0.0002124796373679239</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:23">
+    <row r="33" spans="1:24">
       <c r="A33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B33">
         <v>94.40000000000001</v>
@@ -3137,21 +3236,24 @@
         <v>94.16000000000001</v>
       </c>
       <c r="T33">
+        <v>94.36666666666667</v>
+      </c>
+      <c r="U33">
         <v>0.09375000000001421</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>0.0001948040448405131</v>
       </c>
-      <c r="V33">
+      <c r="W33">
         <v>0.0001416229995752083</v>
       </c>
-      <c r="W33">
+      <c r="X33">
         <v>0.0005299417064124068</v>
       </c>
     </row>
-    <row r="34" spans="1:23">
+    <row r="34" spans="1:24">
       <c r="A34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B34">
         <v>94.25</v>
@@ -3208,21 +3310,24 @@
         <v>94.17666666666668</v>
       </c>
       <c r="T34">
+        <v>94.33333333333333</v>
+      </c>
+      <c r="U34">
         <v>0.1031249999999915</v>
       </c>
-      <c r="U34">
+      <c r="V34">
         <v>7.082403767832979E-05</v>
       </c>
-      <c r="V34">
+      <c r="W34">
         <v>0.000177003681676613</v>
       </c>
-      <c r="W34">
+      <c r="X34">
         <v>-0.001588983050847537</v>
       </c>
     </row>
-    <row r="35" spans="1:23">
+    <row r="35" spans="1:24">
       <c r="A35" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B35">
         <v>94.2</v>
@@ -3279,21 +3384,24 @@
         <v>94.19000000000001</v>
       </c>
       <c r="T35">
+        <v>94.28333333333335</v>
+      </c>
+      <c r="U35">
         <v>0.09687499999999716</v>
       </c>
-      <c r="U35">
+      <c r="V35">
         <v>5.311426649190487E-05</v>
       </c>
-      <c r="V35">
+      <c r="W35">
         <v>0.0001415778855342609</v>
       </c>
-      <c r="W35">
+      <c r="X35">
         <v>-0.0005305039787798504</v>
       </c>
     </row>
-    <row r="36" spans="1:23">
+    <row r="36" spans="1:24">
       <c r="A36" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B36">
         <v>94.09999999999999</v>
@@ -3350,21 +3458,24 @@
         <v>94.19333333333334</v>
       </c>
       <c r="T36">
+        <v>94.18333333333332</v>
+      </c>
+      <c r="U36">
         <v>0.09687499999999716</v>
       </c>
-      <c r="U36">
+      <c r="V36">
         <v>-5.311144551634062E-05</v>
       </c>
-      <c r="V36">
+      <c r="W36">
         <v>3.538946101855345E-05</v>
       </c>
-      <c r="W36">
+      <c r="X36">
         <v>-0.001061571125265504</v>
       </c>
     </row>
-    <row r="37" spans="1:23">
+    <row r="37" spans="1:24">
       <c r="A37" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B37">
         <v>94.25</v>
@@ -3421,21 +3532,24 @@
         <v>94.19333333333334</v>
       </c>
       <c r="T37">
+        <v>94.18333333333332</v>
+      </c>
+      <c r="U37">
         <v>0.08437499999999432</v>
       </c>
-      <c r="U37">
+      <c r="V37">
         <v>8.852377748658213E-05</v>
       </c>
-      <c r="V37">
+      <c r="W37">
         <v>0</v>
       </c>
-      <c r="W37">
+      <c r="X37">
         <v>0.001594048884165922</v>
       </c>
     </row>
-    <row r="38" spans="1:23">
+    <row r="38" spans="1:24">
       <c r="A38" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B38">
         <v>94.05</v>
@@ -3492,21 +3606,24 @@
         <v>94.18666666666667</v>
       </c>
       <c r="T38">
+        <v>94.13333333333333</v>
+      </c>
+      <c r="U38">
         <v>0.05937500000000284</v>
       </c>
-      <c r="U38">
+      <c r="V38">
         <v>-1.110223024625157E-16</v>
       </c>
-      <c r="V38">
+      <c r="W38">
         <v>-7.077641729780204E-05</v>
       </c>
-      <c r="W38">
+      <c r="X38">
         <v>-0.002122015915119402</v>
       </c>
     </row>
-    <row r="39" spans="1:23">
+    <row r="39" spans="1:24">
       <c r="A39" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B39">
         <v>94.3</v>
@@ -3563,21 +3680,24 @@
         <v>94.21333333333332</v>
       </c>
       <c r="T39">
+        <v>94.2</v>
+      </c>
+      <c r="U39">
         <v>0.04375000000000284</v>
       </c>
-      <c r="U39">
+      <c r="V39">
         <v>0</v>
       </c>
-      <c r="V39">
+      <c r="W39">
         <v>0.0002831257078141913</v>
       </c>
-      <c r="W39">
+      <c r="X39">
         <v>0.002658160552897471</v>
       </c>
     </row>
-    <row r="40" spans="1:23">
+    <row r="40" spans="1:24">
       <c r="A40" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B40">
         <v>94.40000000000001</v>
@@ -3634,21 +3754,24 @@
         <v>94.23999999999999</v>
       </c>
       <c r="T40">
+        <v>94.25</v>
+      </c>
+      <c r="U40">
         <v>0.01874999999999716</v>
       </c>
-      <c r="U40">
+      <c r="V40">
         <v>5.310956503268294E-05</v>
       </c>
-      <c r="V40">
+      <c r="W40">
         <v>0.0002830455703368706</v>
       </c>
-      <c r="W40">
+      <c r="X40">
         <v>0.001060445387062625</v>
       </c>
     </row>
-    <row r="41" spans="1:23">
+    <row r="41" spans="1:24">
       <c r="A41" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B41">
         <v>94.3</v>
@@ -3705,21 +3828,24 @@
         <v>94.25</v>
       </c>
       <c r="T41">
+        <v>94.33333333333333</v>
+      </c>
+      <c r="U41">
         <v>-0.01249999999998863</v>
       </c>
-      <c r="U41">
+      <c r="V41">
         <v>-1.770224818564703E-05</v>
       </c>
-      <c r="V41">
+      <c r="W41">
         <v>0.0001061120543295324</v>
       </c>
-      <c r="W41">
+      <c r="X41">
         <v>-0.001059322033898358</v>
       </c>
     </row>
-    <row r="42" spans="1:23">
+    <row r="42" spans="1:24">
       <c r="A42" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B42">
         <v>94.34999999999999</v>
@@ -3776,21 +3902,24 @@
         <v>94.26333333333334</v>
       </c>
       <c r="T42">
+        <v>94.35000000000001</v>
+      </c>
+      <c r="U42">
         <v>-0.01250000000001705</v>
       </c>
-      <c r="U42">
+      <c r="V42">
         <v>0.0002124307387278979</v>
       </c>
-      <c r="V42">
+      <c r="W42">
         <v>0.000141467727674538</v>
       </c>
-      <c r="W42">
+      <c r="X42">
         <v>0.0005302226935313126</v>
       </c>
     </row>
-    <row r="43" spans="1:23">
+    <row r="43" spans="1:24">
       <c r="A43" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B43">
         <v>94.34999999999999</v>
@@ -3847,21 +3976,24 @@
         <v>94.28333333333333</v>
       </c>
       <c r="T43">
+        <v>94.33333333333333</v>
+      </c>
+      <c r="U43">
         <v>-0.006249999999994316</v>
       </c>
-      <c r="U43">
+      <c r="V43">
         <v>5.309640537354277E-05</v>
       </c>
-      <c r="V43">
+      <c r="W43">
         <v>0.0002121715760812215</v>
       </c>
-      <c r="W43">
+      <c r="X43">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:23">
+    <row r="44" spans="1:24">
       <c r="A44" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B44">
         <v>94.3</v>
@@ -3918,21 +4050,24 @@
         <v>94.28666666666666</v>
       </c>
       <c r="T44">
+        <v>94.33333333333333</v>
+      </c>
+      <c r="U44">
         <v>0.003124999999997158</v>
       </c>
-      <c r="U44">
+      <c r="V44">
         <v>0.0001061871725893671</v>
       </c>
-      <c r="V44">
+      <c r="W44">
         <v>3.535442814217582E-05</v>
       </c>
-      <c r="W44">
+      <c r="X44">
         <v>-0.0005299417064122958</v>
       </c>
     </row>
-    <row r="45" spans="1:23">
+    <row r="45" spans="1:24">
       <c r="A45" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B45">
         <v>94.25</v>
@@ -3989,21 +4124,24 @@
         <v>94.27999999999999</v>
       </c>
       <c r="T45">
+        <v>94.3</v>
+      </c>
+      <c r="U45">
         <v>0.003124999999997158</v>
       </c>
-      <c r="U45">
+      <c r="V45">
         <v>8.847991505911423E-05</v>
       </c>
-      <c r="V45">
+      <c r="W45">
         <v>-7.070635650152646E-05</v>
       </c>
-      <c r="W45">
+      <c r="X45">
         <v>-0.0005302226935312015</v>
       </c>
     </row>
-    <row r="46" spans="1:23">
+    <row r="46" spans="1:24">
       <c r="A46" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B46">
         <v>94.25</v>
@@ -4060,21 +4198,24 @@
         <v>94.27333333333333</v>
       </c>
       <c r="T46">
+        <v>94.26666666666665</v>
+      </c>
+      <c r="U46">
         <v>0.03437500000001137</v>
       </c>
-      <c r="U46">
+      <c r="V46">
         <v>8.847208705664578E-05</v>
       </c>
-      <c r="V46">
+      <c r="W46">
         <v>-7.071135624370228E-05</v>
       </c>
-      <c r="W46">
+      <c r="X46">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:23">
+    <row r="47" spans="1:24">
       <c r="A47" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B47">
         <v>94.40000000000001</v>
@@ -4131,21 +4272,24 @@
         <v>94.27666666666667</v>
       </c>
       <c r="T47">
+        <v>94.3</v>
+      </c>
+      <c r="U47">
         <v>0.04375000000000284</v>
       </c>
-      <c r="U47">
+      <c r="V47">
         <v>0.00012384996461412</v>
       </c>
-      <c r="V47">
+      <c r="W47">
         <v>3.535817834676713E-05</v>
       </c>
-      <c r="W47">
+      <c r="X47">
         <v>0.001591511936339662</v>
       </c>
     </row>
-    <row r="48" spans="1:23">
+    <row r="48" spans="1:24">
       <c r="A48" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B48">
         <v>94.3</v>
@@ -4202,21 +4346,24 @@
         <v>94.27</v>
       </c>
       <c r="T48">
+        <v>94.31666666666666</v>
+      </c>
+      <c r="U48">
         <v>0.03437499999999716</v>
       </c>
-      <c r="U48">
+      <c r="V48">
         <v>3.538132220004542E-05</v>
       </c>
-      <c r="V48">
+      <c r="W48">
         <v>-7.071385638024452E-05</v>
       </c>
-      <c r="W48">
+      <c r="X48">
         <v>-0.001059322033898358</v>
       </c>
     </row>
-    <row r="49" spans="1:23">
+    <row r="49" spans="1:24">
       <c r="A49" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B49">
         <v>94.40000000000001</v>
@@ -4273,21 +4420,24 @@
         <v>94.28</v>
       </c>
       <c r="T49">
+        <v>94.36666666666667</v>
+      </c>
+      <c r="U49">
         <v>0.04687499999998579</v>
       </c>
-      <c r="U49">
+      <c r="V49">
         <v>0.0001415202816252847</v>
       </c>
-      <c r="V49">
+      <c r="W49">
         <v>0.0001060782857749132</v>
       </c>
-      <c r="W49">
+      <c r="X49">
         <v>0.001060445387062625</v>
       </c>
     </row>
-    <row r="50" spans="1:23">
+    <row r="50" spans="1:24">
       <c r="A50" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B50">
         <v>94.3</v>
@@ -4344,21 +4494,24 @@
         <v>94.28666666666666</v>
       </c>
       <c r="T50">
+        <v>94.33333333333333</v>
+      </c>
+      <c r="U50">
         <v>0.03750000000000853</v>
       </c>
-      <c r="U50">
+      <c r="V50">
         <v>0.0001061251923519801</v>
       </c>
-      <c r="V50">
+      <c r="W50">
         <v>7.071135624370228E-05</v>
       </c>
-      <c r="W50">
+      <c r="X50">
         <v>-0.001059322033898358</v>
       </c>
     </row>
-    <row r="51" spans="1:23">
+    <row r="51" spans="1:24">
       <c r="A51" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B51">
         <v>94.40000000000001</v>
@@ -4415,21 +4568,24 @@
         <v>94.30666666666666</v>
       </c>
       <c r="T51">
+        <v>94.36666666666667</v>
+      </c>
+      <c r="U51">
         <v>0.03125000000001421</v>
       </c>
-      <c r="U51">
+      <c r="V51">
         <v>0.000123799586155604</v>
       </c>
-      <c r="V51">
+      <c r="W51">
         <v>0.0002121190695043573</v>
       </c>
-      <c r="W51">
+      <c r="X51">
         <v>0.001060445387062625</v>
       </c>
     </row>
-    <row r="52" spans="1:23">
+    <row r="52" spans="1:24">
       <c r="A52" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B52">
         <v>94.40000000000001</v>
@@ -4486,21 +4642,24 @@
         <v>94.31666666666666</v>
       </c>
       <c r="T52">
+        <v>94.36666666666667</v>
+      </c>
+      <c r="U52">
         <v>0.02499999999999147</v>
       </c>
-      <c r="U52">
+      <c r="V52">
         <v>5.305039787817378E-05</v>
       </c>
-      <c r="V52">
+      <c r="W52">
         <v>0.0001060370422734103</v>
       </c>
-      <c r="W52">
+      <c r="X52">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:23">
+    <row r="53" spans="1:24">
       <c r="A53" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B53">
         <v>94.40000000000001</v>
@@ -4557,21 +4716,24 @@
         <v>94.34</v>
       </c>
       <c r="T53">
+        <v>94.40000000000002</v>
+      </c>
+      <c r="U53">
         <v>0.03437500000001137</v>
       </c>
-      <c r="U53">
+      <c r="V53">
         <v>8.841263947068079E-05</v>
       </c>
-      <c r="V53">
+      <c r="W53">
         <v>0.0002473935324263099</v>
       </c>
-      <c r="W53">
+      <c r="X53">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:23">
+    <row r="54" spans="1:24">
       <c r="A54" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B54">
         <v>94.40000000000001</v>
@@ -4628,21 +4790,24 @@
         <v>94.34666666666666</v>
       </c>
       <c r="T54">
+        <v>94.40000000000002</v>
+      </c>
+      <c r="U54">
         <v>0.03125000000001421</v>
       </c>
-      <c r="U54">
+      <c r="V54">
         <v>0.0001768096467344993</v>
       </c>
-      <c r="V54">
+      <c r="W54">
         <v>7.06663840011057E-05</v>
       </c>
-      <c r="W54">
+      <c r="X54">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:23">
+    <row r="55" spans="1:24">
       <c r="A55" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B55">
         <v>94.40000000000001</v>
@@ -4699,21 +4864,24 @@
         <v>94.34666666666666</v>
       </c>
       <c r="T55">
+        <v>94.40000000000002</v>
+      </c>
+      <c r="U55">
         <v>0.02500000000000568</v>
       </c>
-      <c r="U55">
+      <c r="V55">
         <v>0.0001414227124876266</v>
-      </c>
-      <c r="V55">
-        <v>0</v>
       </c>
       <c r="W55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:23">
+      <c r="X55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24">
       <c r="A56" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B56">
         <v>94.45</v>
@@ -4770,21 +4938,24 @@
         <v>94.35666666666667</v>
       </c>
       <c r="T56">
+        <v>94.41666666666667</v>
+      </c>
+      <c r="U56">
         <v>0.04062500000000568</v>
       </c>
-      <c r="U56">
+      <c r="V56">
         <v>0.0001060520361990669</v>
       </c>
-      <c r="V56">
+      <c r="W56">
         <v>0.0001059920859243224</v>
       </c>
-      <c r="W56">
+      <c r="X56">
         <v>0.0005296610169491789</v>
       </c>
     </row>
-    <row r="57" spans="1:23">
+    <row r="57" spans="1:24">
       <c r="A57" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B57">
         <v>94.5</v>
@@ -4841,21 +5012,24 @@
         <v>94.36666666666666</v>
       </c>
       <c r="T57">
+        <v>94.45</v>
+      </c>
+      <c r="U57">
         <v>0.04062500000000568</v>
       </c>
-      <c r="U57">
+      <c r="V57">
         <v>0.0001237142554169068</v>
       </c>
-      <c r="V57">
+      <c r="W57">
         <v>0.0001059808527925643</v>
       </c>
-      <c r="W57">
+      <c r="X57">
         <v>0.0005293806246691179</v>
       </c>
     </row>
-    <row r="58" spans="1:23">
+    <row r="58" spans="1:24">
       <c r="A58" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B58">
         <v>94.40000000000001</v>
@@ -4912,21 +5086,24 @@
         <v>94.36999999999999</v>
       </c>
       <c r="T58">
+        <v>94.45</v>
+      </c>
+      <c r="U58">
         <v>0.05000000000001137</v>
       </c>
-      <c r="U58">
+      <c r="V58">
         <v>0.0001236989520929654</v>
       </c>
-      <c r="V58">
+      <c r="W58">
         <v>3.532320734711547E-05</v>
       </c>
-      <c r="W58">
+      <c r="X58">
         <v>-0.00105820105820098</v>
       </c>
     </row>
-    <row r="59" spans="1:23">
+    <row r="59" spans="1:24">
       <c r="A59" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B59">
         <v>94.40000000000001</v>
@@ -4983,21 +5160,24 @@
         <v>94.37666666666668</v>
       </c>
       <c r="T59">
+        <v>94.43333333333334</v>
+      </c>
+      <c r="U59">
         <v>0.046875</v>
       </c>
-      <c r="U59">
+      <c r="V59">
         <v>5.300727966650598E-05</v>
       </c>
-      <c r="V59">
+      <c r="W59">
         <v>7.064391932498637E-05</v>
       </c>
-      <c r="W59">
+      <c r="X59">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:23">
+    <row r="60" spans="1:24">
       <c r="A60" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B60">
         <v>94.3</v>
@@ -5054,21 +5234,24 @@
         <v>94.38000000000001</v>
       </c>
       <c r="T60">
+        <v>94.36666666666667</v>
+      </c>
+      <c r="U60">
         <v>0.03437499999999716</v>
       </c>
-      <c r="U60">
+      <c r="V60">
         <v>-1.766815668124977E-05</v>
       </c>
-      <c r="V60">
+      <c r="W60">
         <v>3.531946455681556E-05</v>
       </c>
-      <c r="W60">
+      <c r="X60">
         <v>-0.001059322033898358</v>
       </c>
     </row>
-    <row r="61" spans="1:23">
+    <row r="61" spans="1:24">
       <c r="A61" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B61">
         <v>94.3</v>
@@ -5125,21 +5308,24 @@
         <v>94.38333333333334</v>
       </c>
       <c r="T61">
+        <v>94.33333333333333</v>
+      </c>
+      <c r="U61">
         <v>0.01874999999999716</v>
       </c>
-      <c r="U61">
+      <c r="V61">
         <v>-1.766846885042916E-05</v>
       </c>
-      <c r="V61">
+      <c r="W61">
         <v>3.531821713642636E-05</v>
       </c>
-      <c r="W61">
+      <c r="X61">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:23">
+    <row r="62" spans="1:24">
       <c r="A62" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B62">
         <v>94.34999999999999</v>
@@ -5196,21 +5382,24 @@
         <v>94.38000000000001</v>
       </c>
       <c r="T62">
+        <v>94.31666666666666</v>
+      </c>
+      <c r="U62">
         <v>0.006249999999994316</v>
       </c>
-      <c r="U62">
+      <c r="V62">
         <v>0</v>
       </c>
-      <c r="V62">
+      <c r="W62">
         <v>-3.531696980396681E-05</v>
       </c>
-      <c r="W62">
+      <c r="X62">
         <v>0.0005302226935313126</v>
       </c>
     </row>
-    <row r="63" spans="1:23">
+    <row r="63" spans="1:24">
       <c r="A63" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B63">
         <v>94.2</v>
@@ -5267,21 +5456,24 @@
         <v>94.37333333333335</v>
       </c>
       <c r="T63">
+        <v>94.28333333333335</v>
+      </c>
+      <c r="U63">
         <v>-0.006250000000008527</v>
       </c>
-      <c r="U63">
+      <c r="V63">
         <v>-7.067512412317623E-05</v>
       </c>
-      <c r="V63">
+      <c r="W63">
         <v>-7.063643427274169E-05</v>
       </c>
-      <c r="W63">
+      <c r="X63">
         <v>-0.001589825119236776</v>
       </c>
     </row>
-    <row r="64" spans="1:23">
+    <row r="64" spans="1:24">
       <c r="A64" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B64">
         <v>94.2</v>
@@ -5338,21 +5530,24 @@
         <v>94.35999999999999</v>
       </c>
       <c r="T64">
+        <v>94.25</v>
+      </c>
+      <c r="U64">
         <v>-0.03125</v>
       </c>
-      <c r="U64">
+      <c r="V64">
         <v>-1.767002986252653E-05</v>
       </c>
-      <c r="V64">
+      <c r="W64">
         <v>-0.0001412828482625361</v>
       </c>
-      <c r="W64">
+      <c r="X64">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:23">
+    <row r="65" spans="1:24">
       <c r="A65" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B65">
         <v>94.3</v>
@@ -5409,21 +5604,24 @@
         <v>94.36</v>
       </c>
       <c r="T65">
+        <v>94.23333333333335</v>
+      </c>
+      <c r="U65">
         <v>-0.05000000000001137</v>
       </c>
-      <c r="U65">
+      <c r="V65">
         <v>3.534068419575043E-05</v>
       </c>
-      <c r="V65">
+      <c r="W65">
         <v>2.220446049250313E-16</v>
       </c>
-      <c r="W65">
+      <c r="X65">
         <v>0.001061571125265282</v>
       </c>
     </row>
-    <row r="66" spans="1:23">
+    <row r="66" spans="1:24">
       <c r="A66" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B66">
         <v>94.25</v>
@@ -5480,21 +5678,24 @@
         <v>94.34999999999999</v>
       </c>
       <c r="T66">
+        <v>94.25</v>
+      </c>
+      <c r="U66">
         <v>-0.06562500000001137</v>
       </c>
-      <c r="U66">
+      <c r="V66">
         <v>5.300915291361896E-05</v>
       </c>
-      <c r="V66">
+      <c r="W66">
         <v>-0.0001059771089445549</v>
       </c>
-      <c r="W66">
+      <c r="X66">
         <v>-0.0005302226935312015</v>
       </c>
     </row>
-    <row r="67" spans="1:23">
+    <row r="67" spans="1:24">
       <c r="A67" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B67">
         <v>94.34999999999999</v>
@@ -5551,21 +5752,24 @@
         <v>94.34666666666666</v>
       </c>
       <c r="T67">
+        <v>94.3</v>
+      </c>
+      <c r="U67">
         <v>-0.06874999999999432</v>
       </c>
-      <c r="U67">
+      <c r="V67">
         <v>3.533756206164362E-05</v>
       </c>
-      <c r="V67">
+      <c r="W67">
         <v>-3.532944709416785E-05</v>
       </c>
-      <c r="W67">
+      <c r="X67">
         <v>0.001061007957559701</v>
       </c>
     </row>
-    <row r="68" spans="1:23">
+    <row r="68" spans="1:24">
       <c r="A68" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B68">
         <v>94.34999999999999</v>
@@ -5622,21 +5826,24 @@
         <v>94.34333333333332</v>
       </c>
       <c r="T68">
+        <v>94.31666666666666</v>
+      </c>
+      <c r="U68">
         <v>-0.05937499999998863</v>
       </c>
-      <c r="U68">
+      <c r="V68">
         <v>0.0001060089400872766</v>
       </c>
-      <c r="V68">
+      <c r="W68">
         <v>-3.53306953082555E-05</v>
       </c>
-      <c r="W68">
+      <c r="X68">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:23">
+    <row r="69" spans="1:24">
       <c r="A69" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B69">
         <v>94.45</v>
@@ -5693,21 +5900,24 @@
         <v>94.34666666666666</v>
       </c>
       <c r="T69">
+        <v>94.38333333333333</v>
+      </c>
+      <c r="U69">
         <v>-0.04375000000000284</v>
       </c>
-      <c r="U69">
+      <c r="V69">
         <v>5.299885169152141E-05</v>
       </c>
-      <c r="V69">
+      <c r="W69">
         <v>3.533194361038383E-05</v>
       </c>
-      <c r="W69">
+      <c r="X69">
         <v>0.001059883412824592</v>
       </c>
     </row>
-    <row r="70" spans="1:23">
+    <row r="70" spans="1:24">
       <c r="A70" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B70">
         <v>94.34999999999999</v>
@@ -5764,21 +5974,24 @@
         <v>94.34333333333333</v>
       </c>
       <c r="T70">
+        <v>94.38333333333333</v>
+      </c>
+      <c r="U70">
         <v>-0.0406250000000199</v>
       </c>
-      <c r="U70">
+      <c r="V70">
         <v>-1.766534765401673E-05</v>
       </c>
-      <c r="V70">
+      <c r="W70">
         <v>-3.533069530803346E-05</v>
       </c>
-      <c r="W70">
+      <c r="X70">
         <v>-0.001058761249338347</v>
       </c>
     </row>
-    <row r="71" spans="1:23">
+    <row r="71" spans="1:24">
       <c r="A71" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B71">
         <v>94.25</v>
@@ -5835,21 +6048,24 @@
         <v>94.33</v>
       </c>
       <c r="T71">
+        <v>94.35000000000001</v>
+      </c>
+      <c r="U71">
         <v>-0.02500000000000568</v>
       </c>
-      <c r="U71">
+      <c r="V71">
         <v>-1.766565972405321E-05</v>
       </c>
-      <c r="V71">
+      <c r="W71">
         <v>-0.0001413277744408692</v>
       </c>
-      <c r="W71">
+      <c r="X71">
         <v>-0.001059883412824481</v>
       </c>
     </row>
-    <row r="72" spans="1:23">
+    <row r="72" spans="1:24">
       <c r="A72" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B72">
         <v>94.34999999999999</v>
@@ -5906,21 +6122,24 @@
         <v>94.31999999999999</v>
       </c>
       <c r="T72">
-        <v>0</v>
+        <v>94.31666666666666</v>
       </c>
       <c r="U72">
         <v>0</v>
       </c>
       <c r="V72">
+        <v>0</v>
+      </c>
+      <c r="W72">
         <v>-0.0001060108131030191</v>
       </c>
-      <c r="W72">
+      <c r="X72">
         <v>0.001061007957559701</v>
       </c>
     </row>
-    <row r="73" spans="1:23">
+    <row r="73" spans="1:24">
       <c r="A73" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B73">
         <v>94.3</v>
@@ -5977,21 +6196,24 @@
         <v>94.31333333333333</v>
       </c>
       <c r="T73">
+        <v>94.3</v>
+      </c>
+      <c r="U73">
         <v>0.01250000000000284</v>
       </c>
-      <c r="U73">
+      <c r="V73">
         <v>-1.766597180508089E-05</v>
       </c>
-      <c r="V73">
+      <c r="W73">
         <v>-7.068136839127881E-05</v>
       </c>
-      <c r="W73">
+      <c r="X73">
         <v>-0.0005299417064122958</v>
       </c>
     </row>
-    <row r="74" spans="1:23">
+    <row r="74" spans="1:24">
       <c r="A74" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B74">
         <v>94.3</v>
@@ -6048,21 +6270,24 @@
         <v>94.30666666666666</v>
       </c>
       <c r="T74">
+        <v>94.31666666666666</v>
+      </c>
+      <c r="U74">
         <v>0.02500000000000568</v>
       </c>
-      <c r="U74">
+      <c r="V74">
         <v>0</v>
       </c>
-      <c r="V74">
+      <c r="W74">
         <v>-7.06863646003919E-05</v>
       </c>
-      <c r="W74">
+      <c r="X74">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:23">
+    <row r="75" spans="1:24">
       <c r="A75" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B75">
         <v>94.3</v>
@@ -6119,21 +6344,24 @@
         <v>94.30666666666666</v>
       </c>
       <c r="T75">
+        <v>94.3</v>
+      </c>
+      <c r="U75">
         <v>0.02499999999999147</v>
       </c>
-      <c r="U75">
+      <c r="V75">
         <v>1.766628389709979E-05</v>
-      </c>
-      <c r="V75">
-        <v>0</v>
       </c>
       <c r="W75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:23">
+      <c r="X75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:24">
       <c r="A76" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B76">
         <v>94.5</v>
@@ -6190,21 +6418,24 @@
         <v>94.32000000000001</v>
       </c>
       <c r="T76">
+        <v>94.36666666666667</v>
+      </c>
+      <c r="U76">
         <v>0.03125</v>
       </c>
-      <c r="U76">
+      <c r="V76">
         <v>8.832985902551549E-05</v>
       </c>
-      <c r="V76">
+      <c r="W76">
         <v>0.0001413827230314357</v>
       </c>
-      <c r="W76">
+      <c r="X76">
         <v>0.00212089077412525</v>
       </c>
     </row>
-    <row r="77" spans="1:23">
+    <row r="77" spans="1:24">
       <c r="A77" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B77">
         <v>94.55</v>
@@ -6261,21 +6492,24 @@
         <v>94.33333333333333</v>
       </c>
       <c r="T77">
+        <v>94.44999999999999</v>
+      </c>
+      <c r="U77">
         <v>0.02812499999998863</v>
       </c>
-      <c r="U77">
+      <c r="V77">
         <v>5.299323453011873E-05</v>
       </c>
-      <c r="V77">
+      <c r="W77">
         <v>0.0001413627367825576</v>
       </c>
-      <c r="W77">
+      <c r="X77">
         <v>0.0005291005291006012</v>
       </c>
     </row>
-    <row r="78" spans="1:23">
+    <row r="78" spans="1:24">
       <c r="A78" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B78">
         <v>94.75</v>
@@ -6332,21 +6566,24 @@
         <v>94.36999999999999</v>
       </c>
       <c r="T78">
+        <v>94.60000000000001</v>
+      </c>
+      <c r="U78">
         <v>0.05312499999999432</v>
       </c>
-      <c r="U78">
+      <c r="V78">
         <v>0.0001589712791889575</v>
       </c>
-      <c r="V78">
+      <c r="W78">
         <v>0.0003886925795053564</v>
       </c>
-      <c r="W78">
+      <c r="X78">
         <v>0.002115282919090467</v>
       </c>
     </row>
-    <row r="79" spans="1:23">
+    <row r="79" spans="1:24">
       <c r="A79" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B79">
         <v>94.75</v>
@@ -6403,21 +6640,24 @@
         <v>94.40666666666668</v>
       </c>
       <c r="T79">
+        <v>94.68333333333334</v>
+      </c>
+      <c r="U79">
         <v>0.08124999999999716</v>
       </c>
-      <c r="U79">
+      <c r="V79">
         <v>0.0001236246754854342</v>
       </c>
-      <c r="V79">
+      <c r="W79">
         <v>0.0003885415562858707</v>
       </c>
-      <c r="W79">
+      <c r="X79">
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:23">
+    <row r="80" spans="1:24">
       <c r="A80" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B80">
         <v>94.5</v>
@@ -6474,21 +6714,24 @@
         <v>94.42</v>
       </c>
       <c r="T80">
+        <v>94.66666666666667</v>
+      </c>
+      <c r="U80">
         <v>0.08124999999998295</v>
       </c>
-      <c r="U80">
+      <c r="V80">
         <v>7.063393960793363E-05</v>
       </c>
-      <c r="V80">
+      <c r="W80">
         <v>0.0001412329637735521</v>
       </c>
-      <c r="W80">
+      <c r="X80">
         <v>-0.00263852242744067</v>
       </c>
     </row>
-    <row r="81" spans="1:23">
+    <row r="81" spans="1:24">
       <c r="A81" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B81">
         <v>94.5</v>
@@ -6545,21 +6788,24 @@
         <v>94.43666666666667</v>
       </c>
       <c r="T81">
+        <v>94.58333333333333</v>
+      </c>
+      <c r="U81">
         <v>0.09375</v>
       </c>
-      <c r="U81">
+      <c r="V81">
         <v>3.531447540350285E-05</v>
       </c>
-      <c r="V81">
+      <c r="W81">
         <v>0.0001765162748004201</v>
       </c>
-      <c r="W81">
+      <c r="X81">
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:23">
+    <row r="82" spans="1:24">
       <c r="A82" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B82">
         <v>94.75</v>
@@ -6616,21 +6862,24 @@
         <v>94.46333333333334</v>
       </c>
       <c r="T82">
+        <v>94.58333333333333</v>
+      </c>
+      <c r="U82">
         <v>0.1187499999999915</v>
       </c>
-      <c r="U82">
+      <c r="V82">
         <v>0.0001235962991734674</v>
       </c>
-      <c r="V82">
+      <c r="W82">
         <v>0.0002823761956867177</v>
       </c>
-      <c r="W82">
+      <c r="X82">
         <v>0.002645502645502562</v>
       </c>
     </row>
-    <row r="83" spans="1:23">
+    <row r="83" spans="1:24">
       <c r="A83" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B83">
         <v>94.8</v>
@@ -6687,21 +6936,24 @@
         <v>94.49333333333334</v>
       </c>
       <c r="T83">
+        <v>94.68333333333332</v>
+      </c>
+      <c r="U83">
         <v>0.1531250000000028</v>
       </c>
-      <c r="U83">
+      <c r="V83">
         <v>0.0001412354571617147</v>
       </c>
-      <c r="V83">
+      <c r="W83">
         <v>0.0003175835421151962</v>
       </c>
-      <c r="W83">
+      <c r="X83">
         <v>0.0005277044854881119</v>
       </c>
     </row>
-    <row r="84" spans="1:23">
+    <row r="84" spans="1:24">
       <c r="A84" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B84">
         <v>94.90000000000001</v>
@@ -6758,21 +7010,24 @@
         <v>94.52333333333333</v>
       </c>
       <c r="T84">
+        <v>94.81666666666666</v>
+      </c>
+      <c r="U84">
         <v>0.1687499999999886</v>
       </c>
-      <c r="U84">
+      <c r="V84">
         <v>0.0001765193906551055</v>
       </c>
-      <c r="V84">
+      <c r="W84">
         <v>0.0003174827148297865</v>
       </c>
-      <c r="W84">
+      <c r="X84">
         <v>0.001054852320675259</v>
       </c>
     </row>
-    <row r="85" spans="1:23">
+    <row r="85" spans="1:24">
       <c r="A85" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B85">
         <v>94.8</v>
@@ -6829,21 +7084,24 @@
         <v>94.55333333333333</v>
       </c>
       <c r="T85">
+        <v>94.83333333333333</v>
+      </c>
+      <c r="U85">
         <v>0.1781249999999943</v>
       </c>
-      <c r="U85">
+      <c r="V85">
         <v>0.0001411905896471222</v>
       </c>
-      <c r="V85">
+      <c r="W85">
         <v>0.0003173819515462917</v>
       </c>
-      <c r="W85">
+      <c r="X85">
         <v>-0.001053740779768275</v>
       </c>
     </row>
-    <row r="86" spans="1:23">
+    <row r="86" spans="1:24">
       <c r="A86" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B86">
         <v>94.8</v>
@@ -6900,21 +7158,24 @@
         <v>94.58999999999999</v>
       </c>
       <c r="T86">
+        <v>94.83333333333333</v>
+      </c>
+      <c r="U86">
         <v>0.1562500000000142</v>
       </c>
-      <c r="U86">
+      <c r="V86">
         <v>0.0001235243254691376</v>
       </c>
-      <c r="V86">
+      <c r="W86">
         <v>0.000387788197137473</v>
       </c>
-      <c r="W86">
+      <c r="X86">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:23">
+    <row r="87" spans="1:24">
       <c r="A87" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B87">
         <v>94.84999999999999</v>
@@ -6971,21 +7232,24 @@
         <v>94.62333333333332</v>
       </c>
       <c r="T87">
+        <v>94.81666666666666</v>
+      </c>
+      <c r="U87">
         <v>0.1312500000000227</v>
       </c>
-      <c r="U87">
+      <c r="V87">
         <v>0.0001235090690943075</v>
       </c>
-      <c r="V87">
+      <c r="W87">
         <v>0.0003523980688586725</v>
       </c>
-      <c r="W87">
+      <c r="X87">
         <v>0.0005274261603376296</v>
       </c>
     </row>
-    <row r="88" spans="1:23">
+    <row r="88" spans="1:24">
       <c r="A88" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B88">
         <v>94.75</v>
@@ -7042,21 +7306,24 @@
         <v>94.65333333333334</v>
       </c>
       <c r="T88">
+        <v>94.8</v>
+      </c>
+      <c r="U88">
         <v>0.1375000000000171</v>
       </c>
-      <c r="U88">
+      <c r="V88">
         <v>0.0001234938164882404</v>
       </c>
-      <c r="V88">
+      <c r="W88">
         <v>0.0003170465353861118</v>
       </c>
-      <c r="W88">
+      <c r="X88">
         <v>-0.001054296257248177</v>
       </c>
     </row>
-    <row r="89" spans="1:23">
+    <row r="89" spans="1:24">
       <c r="A89" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B89">
         <v>94.7</v>
@@ -7113,21 +7380,24 @@
         <v>94.68000000000001</v>
       </c>
       <c r="T89">
+        <v>94.76666666666667</v>
+      </c>
+      <c r="U89">
         <v>0.1375000000000028</v>
       </c>
-      <c r="U89">
+      <c r="V89">
         <v>0.000105838772270328</v>
       </c>
-      <c r="V89">
+      <c r="W89">
         <v>0.0002817298211015284</v>
       </c>
-      <c r="W89">
+      <c r="X89">
         <v>-0.0005277044854881119</v>
       </c>
     </row>
-    <row r="90" spans="1:23">
+    <row r="90" spans="1:24">
       <c r="A90" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B90">
         <v>94.59999999999999</v>
@@ -7184,21 +7454,24 @@
         <v>94.7</v>
       </c>
       <c r="T90">
+        <v>94.68333333333334</v>
+      </c>
+      <c r="U90">
         <v>0.1000000000000085</v>
       </c>
-      <c r="U90">
+      <c r="V90">
         <v>0.0001058275716099288</v>
       </c>
-      <c r="V90">
+      <c r="W90">
         <v>0.0002112378538232651</v>
       </c>
-      <c r="W90">
+      <c r="X90">
         <v>-0.001055966209081438</v>
       </c>
     </row>
-    <row r="91" spans="1:23">
+    <row r="91" spans="1:24">
       <c r="A91" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B91">
         <v>94.59999999999999</v>
@@ -7255,21 +7528,24 @@
         <v>94.70666666666668</v>
       </c>
       <c r="T91">
+        <v>94.63333333333333</v>
+      </c>
+      <c r="U91">
         <v>0.05624999999999147</v>
       </c>
-      <c r="U91">
+      <c r="V91">
         <v>0.0001058163733202999</v>
       </c>
-      <c r="V91">
+      <c r="W91">
         <v>7.03977472722439E-05</v>
       </c>
-      <c r="W91">
+      <c r="X91">
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:23">
+    <row r="92" spans="1:24">
       <c r="A92" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B92">
         <v>94.55</v>
@@ -7326,21 +7602,24 @@
         <v>94.70666666666666</v>
       </c>
       <c r="T92">
+        <v>94.58333333333333</v>
+      </c>
+      <c r="U92">
         <v>0.009375000000005684</v>
       </c>
-      <c r="U92">
+      <c r="V92">
         <v>7.053678493340598E-05</v>
       </c>
-      <c r="V92">
+      <c r="W92">
         <v>-1.110223024625157E-16</v>
       </c>
-      <c r="W92">
+      <c r="X92">
         <v>-0.0005285412262155953</v>
       </c>
     </row>
-    <row r="93" spans="1:23">
+    <row r="93" spans="1:24">
       <c r="A93" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B93">
         <v>94.65000000000001</v>
@@ -7397,21 +7676,24 @@
         <v>94.7</v>
       </c>
       <c r="T93">
+        <v>94.59999999999998</v>
+      </c>
+      <c r="U93">
         <v>-0.015625</v>
       </c>
-      <c r="U93">
+      <c r="V93">
         <v>0.000158696572153838</v>
       </c>
-      <c r="V93">
+      <c r="W93">
         <v>-7.039279177800672E-05</v>
       </c>
-      <c r="W93">
+      <c r="X93">
         <v>0.001057641459545344</v>
       </c>
     </row>
-    <row r="94" spans="1:23">
+    <row r="94" spans="1:24">
       <c r="A94" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B94">
         <v>94.65000000000001</v>
@@ -7468,21 +7750,24 @@
         <v>94.69333333333333</v>
       </c>
       <c r="T94">
+        <v>94.61666666666667</v>
+      </c>
+      <c r="U94">
         <v>-0.02812500000000284</v>
       </c>
-      <c r="U94">
+      <c r="V94">
         <v>0.0001586713915480154</v>
       </c>
-      <c r="V94">
+      <c r="W94">
         <v>-7.039774727213288E-05</v>
       </c>
-      <c r="W94">
+      <c r="X94">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:23">
+    <row r="95" spans="1:24">
       <c r="A95" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B95">
         <v>94.7</v>
@@ -7539,21 +7824,24 @@
         <v>94.70666666666666</v>
       </c>
       <c r="T95">
+        <v>94.66666666666667</v>
+      </c>
+      <c r="U95">
         <v>-0.04374999999998863</v>
       </c>
-      <c r="U95">
+      <c r="V95">
         <v>0.0001410188612727126</v>
       </c>
-      <c r="V95">
+      <c r="W95">
         <v>0.0001408054069276243</v>
       </c>
-      <c r="W95">
+      <c r="X95">
         <v>0.0005282620179609676</v>
       </c>
     </row>
-    <row r="96" spans="1:23">
+    <row r="96" spans="1:24">
       <c r="A96" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B96">
         <v>94.7</v>
@@ -7610,21 +7898,24 @@
         <v>94.72</v>
       </c>
       <c r="T96">
+        <v>94.68333333333334</v>
+      </c>
+      <c r="U96">
         <v>-0.06249999999998579</v>
       </c>
-      <c r="U96">
+      <c r="V96">
         <v>0.0001586238499771131</v>
       </c>
-      <c r="V96">
+      <c r="W96">
         <v>0.0001407855835562355</v>
       </c>
-      <c r="W96">
+      <c r="X96">
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:23">
+    <row r="97" spans="1:24">
       <c r="A97" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B97">
         <v>94.59999999999999</v>
@@ -7681,21 +7972,24 @@
         <v>94.70999999999999</v>
       </c>
       <c r="T97">
+        <v>94.66666666666667</v>
+      </c>
+      <c r="U97">
         <v>-0.08124999999999716</v>
       </c>
-      <c r="U97">
+      <c r="V97">
         <v>8.811038468992116E-05</v>
       </c>
-      <c r="V97">
+      <c r="W97">
         <v>-0.0001055743243243423</v>
       </c>
-      <c r="W97">
+      <c r="X97">
         <v>-0.001055966209081438</v>
       </c>
     </row>
-    <row r="98" spans="1:23">
+    <row r="98" spans="1:24">
       <c r="A98" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B98">
         <v>94.7</v>
@@ -7752,21 +8046,24 @@
         <v>94.70333333333333</v>
       </c>
       <c r="T98">
+        <v>94.66666666666667</v>
+      </c>
+      <c r="U98">
         <v>-0.06562499999999716</v>
       </c>
-      <c r="U98">
+      <c r="V98">
         <v>0.0001233436707077651</v>
       </c>
-      <c r="V98">
+      <c r="W98">
         <v>-7.039031429267872E-05</v>
       </c>
-      <c r="W98">
+      <c r="X98">
         <v>0.001057082452431413</v>
       </c>
     </row>
-    <row r="99" spans="1:23">
+    <row r="99" spans="1:24">
       <c r="A99" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B99">
         <v>94.65000000000001</v>
@@ -7823,21 +8120,24 @@
         <v>94.68666666666668</v>
       </c>
       <c r="T99">
+        <v>94.64999999999999</v>
+      </c>
+      <c r="U99">
         <v>-0.05000000000001137</v>
       </c>
-      <c r="U99">
+      <c r="V99">
         <v>7.047340509847011E-05</v>
       </c>
-      <c r="V99">
+      <c r="W99">
         <v>-0.0001759881735945434</v>
       </c>
-      <c r="W99">
+      <c r="X99">
         <v>-0.000527983104540608</v>
       </c>
     </row>
-    <row r="100" spans="1:23">
+    <row r="100" spans="1:24">
       <c r="A100" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B100">
         <v>94.65000000000001</v>
@@ -7894,21 +8194,24 @@
         <v>94.67666666666666</v>
       </c>
       <c r="T100">
+        <v>94.66666666666667</v>
+      </c>
+      <c r="U100">
         <v>-0.02187499999999432</v>
       </c>
-      <c r="U100">
+      <c r="V100">
         <v>0.0001057026584219134</v>
       </c>
-      <c r="V100">
+      <c r="W100">
         <v>-0.000105611490530344</v>
       </c>
-      <c r="W100">
+      <c r="X100">
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:23">
+    <row r="101" spans="1:24">
       <c r="A101" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B101">
         <v>94.55</v>
@@ -7965,21 +8268,24 @@
         <v>94.66000000000001</v>
       </c>
       <c r="T101">
+        <v>94.61666666666667</v>
+      </c>
+      <c r="U101">
         <v>-0.01874999999998295</v>
       </c>
-      <c r="U101">
+      <c r="V101">
         <v>0.0001056914865507075</v>
       </c>
-      <c r="V101">
+      <c r="W101">
         <v>-0.0001760377424918635</v>
       </c>
-      <c r="W101">
+      <c r="X101">
         <v>-0.001056524035921935</v>
       </c>
     </row>
-    <row r="102" spans="1:23">
+    <row r="102" spans="1:24">
       <c r="A102" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B102">
         <v>94.59999999999999</v>
@@ -8036,21 +8342,24 @@
         <v>94.64333333333335</v>
       </c>
       <c r="T102">
+        <v>94.59999999999998</v>
+      </c>
+      <c r="U102">
         <v>-0.01250000000000284</v>
       </c>
-      <c r="U102">
+      <c r="V102">
         <v>8.806693086760298E-05</v>
       </c>
-      <c r="V102">
+      <c r="W102">
         <v>-0.000176068737234969</v>
       </c>
-      <c r="W102">
+      <c r="X102">
         <v>0.0005288207297726721</v>
       </c>
     </row>
-    <row r="103" spans="1:23">
+    <row r="103" spans="1:24">
       <c r="A103" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B103">
         <v>94.75</v>
@@ -8107,21 +8416,24 @@
         <v>94.64333333333335</v>
       </c>
       <c r="T103">
+        <v>94.63333333333333</v>
+      </c>
+      <c r="U103">
         <v>0</v>
       </c>
-      <c r="U103">
+      <c r="V103">
         <v>0.0001585065163789423</v>
       </c>
-      <c r="V103">
+      <c r="W103">
         <v>0</v>
       </c>
-      <c r="W103">
+      <c r="X103">
         <v>0.001585623678646897</v>
       </c>
     </row>
-    <row r="104" spans="1:23">
+    <row r="104" spans="1:24">
       <c r="A104" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B104">
         <v>94.7</v>
@@ -8178,21 +8490,24 @@
         <v>94.64333333333335</v>
       </c>
       <c r="T104">
+        <v>94.68333333333334</v>
+      </c>
+      <c r="U104">
         <v>0.003124999999982947</v>
       </c>
-      <c r="U104">
+      <c r="V104">
         <v>0.0001408723520399668</v>
       </c>
-      <c r="V104">
+      <c r="W104">
         <v>0</v>
       </c>
-      <c r="W104">
+      <c r="X104">
         <v>-0.0005277044854881119</v>
       </c>
     </row>
-    <row r="105" spans="1:23">
+    <row r="105" spans="1:24">
       <c r="A105" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B105">
         <v>94.84999999999999</v>
@@ -8249,21 +8564,24 @@
         <v>94.66000000000001</v>
       </c>
       <c r="T105">
+        <v>94.76666666666667</v>
+      </c>
+      <c r="U105">
         <v>0.02499999999999147</v>
       </c>
-      <c r="U105">
+      <c r="V105">
         <v>0.0001936722009967529</v>
       </c>
-      <c r="V105">
+      <c r="W105">
         <v>0.0001760997428943423</v>
       </c>
-      <c r="W105">
+      <c r="X105">
         <v>0.001583949313621824</v>
       </c>
     </row>
-    <row r="106" spans="1:23">
+    <row r="106" spans="1:24">
       <c r="A106" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B106">
         <v>94.8</v>
@@ -8320,21 +8638,24 @@
         <v>94.67333333333333</v>
       </c>
       <c r="T106">
+        <v>94.78333333333335</v>
+      </c>
+      <c r="U106">
         <v>0.02499999999999147</v>
       </c>
-      <c r="U106">
+      <c r="V106">
         <v>0.0001056189269115215</v>
       </c>
-      <c r="V106">
+      <c r="W106">
         <v>0.0001408549897878864</v>
       </c>
-      <c r="W106">
+      <c r="X106">
         <v>-0.0005271481286240887</v>
       </c>
     </row>
-    <row r="107" spans="1:23">
+    <row r="107" spans="1:24">
       <c r="A107" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B107">
         <v>94.90000000000001</v>
@@ -8391,21 +8712,24 @@
         <v>94.69666666666667</v>
       </c>
       <c r="T107">
+        <v>94.85000000000001</v>
+      </c>
+      <c r="U107">
         <v>0.03750000000000853</v>
       </c>
-      <c r="U107">
+      <c r="V107">
         <v>0.0001232090681875242</v>
       </c>
-      <c r="V107">
+      <c r="W107">
         <v>0.0002464615167947493</v>
       </c>
-      <c r="W107">
+      <c r="X107">
         <v>0.001054852320675259</v>
       </c>
     </row>
-    <row r="108" spans="1:23">
+    <row r="108" spans="1:24">
       <c r="A108" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B108">
         <v>94.90000000000001</v>
@@ -8462,21 +8786,24 @@
         <v>94.71333333333332</v>
       </c>
       <c r="T108">
+        <v>94.86666666666667</v>
+      </c>
+      <c r="U108">
         <v>0.046875</v>
       </c>
-      <c r="U108">
+      <c r="V108">
         <v>5.279738125008038E-05</v>
       </c>
-      <c r="V108">
+      <c r="W108">
         <v>0.0001760005632016615</v>
       </c>
-      <c r="W108">
+      <c r="X108">
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:23">
+    <row r="109" spans="1:24">
       <c r="A109" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B109">
         <v>95</v>
@@ -8533,21 +8860,24 @@
         <v>94.73666666666668</v>
       </c>
       <c r="T109">
+        <v>94.93333333333334</v>
+      </c>
+      <c r="U109">
         <v>0.08125000000001137</v>
       </c>
-      <c r="U109">
+      <c r="V109">
         <v>8.799098972267494E-05</v>
       </c>
-      <c r="V109">
+      <c r="W109">
         <v>0.0002463574294364612</v>
       </c>
-      <c r="W109">
+      <c r="X109">
         <v>0.001053740779768164</v>
       </c>
     </row>
-    <row r="110" spans="1:23">
+    <row r="110" spans="1:24">
       <c r="A110" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B110">
         <v>94.95</v>
@@ -8604,21 +8934,24 @@
         <v>94.75333333333333</v>
       </c>
       <c r="T110">
+        <v>94.95</v>
+      </c>
+      <c r="U110">
         <v>0.1062500000000028</v>
       </c>
-      <c r="U110">
+      <c r="V110">
         <v>0.0001583698463811789</v>
       </c>
-      <c r="V110">
+      <c r="W110">
         <v>0.0001759262517151416</v>
       </c>
-      <c r="W110">
+      <c r="X110">
         <v>-0.0005263157894737081</v>
       </c>
     </row>
-    <row r="111" spans="1:23">
+    <row r="111" spans="1:24">
       <c r="A111" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B111">
         <v>94.95</v>
@@ -8675,21 +9008,24 @@
         <v>94.77</v>
       </c>
       <c r="T111">
+        <v>94.96666666666665</v>
+      </c>
+      <c r="U111">
         <v>0.1156249999999943</v>
       </c>
-      <c r="U111">
+      <c r="V111">
         <v>0.0001583447693445095</v>
       </c>
-      <c r="V111">
+      <c r="W111">
         <v>0.0001758953071131497</v>
       </c>
-      <c r="W111">
+      <c r="X111">
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:23">
+    <row r="112" spans="1:24">
       <c r="A112" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B112">
         <v>94.90000000000001</v>
@@ -8746,21 +9082,24 @@
         <v>94.79000000000001</v>
       </c>
       <c r="T112">
+        <v>94.93333333333334</v>
+      </c>
+      <c r="U112">
         <v>0.1281249999999972</v>
       </c>
-      <c r="U112">
+      <c r="V112">
         <v>5.277323341590368E-05</v>
       </c>
-      <c r="V112">
+      <c r="W112">
         <v>0.0002110372480743639</v>
       </c>
-      <c r="W112">
+      <c r="X112">
         <v>-0.0005265929436545358</v>
       </c>
     </row>
-    <row r="113" spans="1:23">
+    <row r="113" spans="1:24">
       <c r="A113" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B113">
         <v>94.95</v>
@@ -8817,21 +9156,24 @@
         <v>94.80666666666667</v>
       </c>
       <c r="T113">
+        <v>94.93333333333334</v>
+      </c>
+      <c r="U113">
         <v>0.1187499999999915</v>
       </c>
-      <c r="U113">
+      <c r="V113">
         <v>5.277044854890001E-05</v>
       </c>
-      <c r="V113">
+      <c r="W113">
         <v>0.0001758272672927053</v>
       </c>
-      <c r="W113">
+      <c r="X113">
         <v>0.0005268703898839711</v>
       </c>
     </row>
-    <row r="114" spans="1:23">
+    <row r="114" spans="1:24">
       <c r="A114" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B114">
         <v>94.95</v>
@@ -8888,21 +9230,24 @@
         <v>94.82666666666665</v>
       </c>
       <c r="T114">
+        <v>94.93333333333334</v>
+      </c>
+      <c r="U114">
         <v>0.1218750000000028</v>
       </c>
-      <c r="U114">
+      <c r="V114">
         <v>1.758922132499841E-05</v>
       </c>
-      <c r="V114">
+      <c r="W114">
         <v>0.0002109556289990877</v>
       </c>
-      <c r="W114">
+      <c r="X114">
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:23">
+    <row r="115" spans="1:24">
       <c r="A115" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B115">
         <v>94.95</v>
@@ -8959,21 +9304,24 @@
         <v>94.84666666666666</v>
       </c>
       <c r="T115">
+        <v>94.95</v>
+      </c>
+      <c r="U115">
         <v>0.109375</v>
       </c>
-      <c r="U115">
+      <c r="V115">
         <v>5.276673584986291E-05</v>
       </c>
-      <c r="V115">
+      <c r="W115">
         <v>0.0002109111361081606</v>
       </c>
-      <c r="W115">
+      <c r="X115">
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:23">
+    <row r="116" spans="1:24">
       <c r="A116" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B116">
         <v>95</v>
@@ -9030,21 +9378,24 @@
         <v>94.87666666666668</v>
       </c>
       <c r="T116">
+        <v>94.96666666666668</v>
+      </c>
+      <c r="U116">
         <v>0.09999999999999432</v>
       </c>
-      <c r="U116">
+      <c r="V116">
         <v>7.035193555759989E-05</v>
       </c>
-      <c r="V116">
+      <c r="W116">
         <v>0.0003162999929713362</v>
       </c>
-      <c r="W116">
+      <c r="X116">
         <v>0.0005265929436544248</v>
       </c>
     </row>
-    <row r="117" spans="1:23">
+    <row r="117" spans="1:24">
       <c r="A117" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B117">
         <v>95</v>
@@ -9101,21 +9452,24 @@
         <v>94.90333333333334</v>
       </c>
       <c r="T117">
+        <v>94.98333333333333</v>
+      </c>
+      <c r="U117">
         <v>0.07187499999999147</v>
       </c>
-      <c r="U117">
+      <c r="V117">
         <v>5.276023988320944E-05</v>
       </c>
-      <c r="V117">
+      <c r="W117">
         <v>0.0002810666479287072</v>
       </c>
-      <c r="W117">
+      <c r="X117">
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:23">
+    <row r="118" spans="1:24">
       <c r="A118" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B118">
         <v>94.95</v>
@@ -9172,21 +9526,24 @@
         <v>94.91666666666667</v>
       </c>
       <c r="T118">
+        <v>94.98333333333335</v>
+      </c>
+      <c r="U118">
         <v>0.04999999999999716</v>
       </c>
-      <c r="U118">
+      <c r="V118">
         <v>7.03432751827382E-05</v>
       </c>
-      <c r="V118">
+      <c r="W118">
         <v>0.0001404938358329222</v>
       </c>
-      <c r="W118">
+      <c r="X118">
         <v>-0.0005263157894737081</v>
       </c>
     </row>
-    <row r="119" spans="1:23">
+    <row r="119" spans="1:24">
       <c r="A119" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B119">
         <v>95</v>
@@ -9243,21 +9600,24 @@
         <v>94.93666666666667</v>
       </c>
       <c r="T119">
+        <v>94.98333333333335</v>
+      </c>
+      <c r="U119">
         <v>0.04062500000000568</v>
       </c>
-      <c r="U119">
+      <c r="V119">
         <v>0.0001055074910316645</v>
       </c>
-      <c r="V119">
+      <c r="W119">
         <v>0.0002107111501317149</v>
       </c>
-      <c r="W119">
+      <c r="X119">
         <v>0.0005265929436544248</v>
       </c>
     </row>
-    <row r="120" spans="1:23">
+    <row r="120" spans="1:24">
       <c r="A120" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B120">
         <v>94.95</v>
@@ -9314,21 +9674,24 @@
         <v>94.94333333333334</v>
       </c>
       <c r="T120">
+        <v>94.96666666666668</v>
+      </c>
+      <c r="U120">
         <v>0.03125</v>
       </c>
-      <c r="U120">
+      <c r="V120">
         <v>0.0001230790871049603</v>
       </c>
-      <c r="V120">
+      <c r="W120">
         <v>7.02222534321173E-05</v>
       </c>
-      <c r="W120">
+      <c r="X120">
         <v>-0.0005263157894737081</v>
       </c>
     </row>
-    <row r="121" spans="1:23">
+    <row r="121" spans="1:24">
       <c r="A121" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B121">
         <v>94.95</v>
@@ -9385,15 +9748,18 @@
         <v>94.95333333333335</v>
       </c>
       <c r="T121">
+        <v>94.96666666666665</v>
+      </c>
+      <c r="U121">
         <v>0.02499999999999147</v>
       </c>
-      <c r="U121">
+      <c r="V121">
         <v>0.0001230639405074285</v>
       </c>
-      <c r="V121">
+      <c r="W121">
         <v>0.0001053259839203236</v>
       </c>
-      <c r="W121">
+      <c r="X121">
         <v>0</v>
       </c>
     </row>
